--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB96DBFC-3DE7-447D-8496-9912AEE995DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C60EE5-AA28-44AD-AD61-C4F55836D8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +944,15 @@
   </si>
   <si>
     <t>周生生</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>677426000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3690,25 +3692,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3717,16 +3719,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3890,7 +3892,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>129899</v>
@@ -4173,11 +4175,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6477987421383656E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4222,7 +4224,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4588,7 +4590,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4596,7 +4598,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4606,11 +4608,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4624,10 +4626,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4676,7 +4678,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4697,7 +4699,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4715,7 +4717,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4822,7 +4824,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4858,8 +4860,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4902,17 +4904,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.36</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4922,40 +4924,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>4308.4293600000001</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>10012.356099107743</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4978,11 +4980,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5045,7 +5047,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5095,7 +5097,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5135,7 +5137,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5185,12 +5187,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.17383183926682738</v>
+        <v>7.4801794161790003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5217,7 +5219,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6477987421383656E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,12 +5236,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5247,22 +5249,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6310399178250217</v>
+        <v>3.7449756989112757</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.539869398420247</v>
+        <v>8.3573612717007375</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4517233144516588</v>
-      </c>
-      <c r="G29" s="271">
+        <v>4.4058537634250303</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1651038247132597</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>7.2672706710441197</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5310,7 +5312,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5320,7 +5322,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5347,7 +5349,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6293,12 +6295,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6784,7 +6783,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6835,7 +6834,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6886,7 +6885,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6937,7 +6936,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7039,7 +7038,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7192,7 +7191,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8263,7 +8262,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8332,7 +8331,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8536,7 +8535,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11486,11 +11485,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11501,11 +11500,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11517,11 +11516,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11735,19 +11734,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11757,18 +11756,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11845,7 +11844,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11905,7 +11904,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11968,7 +11967,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11998,7 +11997,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12135,17 +12134,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21728979908353424</v>
+        <v>9.3502242702237504E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15210285935847395</v>
+        <v>6.5451569891566252E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17383183926682738</v>
+        <v>7.4801794161790003E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12186,17 +12185,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6477987421383656E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9182389937106931E-2</v>
+        <v>2.9769959942451758E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6477987421383656E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12227,15 +12226,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12256,14 +12255,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.751360535806349</v>
+        <v>20.124223254874526</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>37.331198384524953</v>
+        <v>24.026162998244828</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12281,14 +12280,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.3146754243167642</v>
+        <v>7.7198672791180067</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.616050321250563</v>
+        <v>10.003623989159708</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12314,7 +12313,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12331,21 +12330,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12573164.30617086</v>
+        <v>8092022.439574277</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.79168430187458</v>
+        <v>10.005295618272442</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.560203337590909</v>
+        <v>11.945249281211936</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.119764140352935</v>
+        <v>17.454137608938325</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12394,27 +12393,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12573164.30617086</v>
+        <v>8092022.439574277</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.174552246772832</v>
+        <v>9.3289815822808606</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.79168430187458</v>
+        <v>10.005295618272442</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.675943819732744</v>
+        <v>10.975272449742189</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.560203337590909</v>
+        <v>11.945249281211936</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.119764140352935</v>
+        <v>17.454137608938325</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12438,7 +12437,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12455,27 +12454,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4249091.3886589268</v>
+        <v>3369225.0320310183</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6310399178250217</v>
+        <v>3.7449756989112757</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.6310399178250217</v>
+        <v>3.8381384107679826</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.4517233144516588</v>
+        <v>4.4058537634250303</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2724067110782968</v>
+        <v>4.9735691160820785</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1651038247132597</v>
+        <v>7.2672706710441197</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12499,7 +12498,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12516,27 +12515,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6578729.1886271117</v>
+        <v>4688951.0702783689</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.4027960822989272</v>
+        <v>6.5369786405960681</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.7113621098498015</v>
+        <v>6.9217170145202118</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.063833567092201</v>
+        <v>7.6905631065836095</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.416305024334603</v>
+        <v>8.4594091986470072</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.142433982533099</v>
+        <v>12.360704139991222</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C60EE5-AA28-44AD-AD61-C4F55836D8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2466C82C-A416-4ABE-82BB-ECCC0A6C5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,15 +3628,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>677426000</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3689,7 +3693,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>263</v>
@@ -3698,16 +3702,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>263</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3892,7 +3896,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>129899</v>
@@ -4156,7 +4160,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.15+0.4</f>
@@ -4175,11 +4179,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7212449928064696E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4224,13 +4228,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4572,7 +4576,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4590,7 +4594,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4598,7 +4602,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4608,16 +4612,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4626,10 +4630,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4678,7 +4682,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4699,7 +4703,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4717,7 +4721,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4861,7 +4865,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4902,19 +4906,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>6.45</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4922,42 +4926,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10012.356099107743</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>4369.3977000000004</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4980,16 +4984,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5014,40 +5018,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5060,29 +5064,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5092,12 +5096,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5107,7 +5111,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5115,7 +5119,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5129,7 +5133,7 @@
         <v>0.73600077942413045</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5137,7 +5141,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5148,14 +5152,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5167,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5183,16 +5187,16 @@
         <v>5.1931891220120593E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.4801794161790003E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>5.8340920033615413</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5215,11 +5219,11 @@
         <v>4.9902853833308697E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,12 +5240,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5249,42 +5253,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7449756989112757</v>
+        <v>4.6101714356769081</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.3573612717007375</v>
+        <v>10.48147005097346</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4058537634250303</v>
-      </c>
-      <c r="G29" s="272">
+        <v>5.423911986195538</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.2672706710441197</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>9.1143217834551837</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5294,7 +5298,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5305,14 +5309,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5322,7 +5326,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5332,14 +5336,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5349,7 +5353,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5364,14 +5368,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6356,16 +6360,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6383,7 +6387,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6416,7 +6420,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6783,7 +6787,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6834,7 +6838,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6885,7 +6889,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6936,7 +6940,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7038,7 +7042,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7191,7 +7195,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8262,7 +8266,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8331,7 +8335,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8535,7 +8539,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10433,7 +10437,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11485,11 +11489,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11500,11 +11504,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11516,11 +11520,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11734,19 +11738,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11756,18 +11760,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11844,7 +11848,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11904,7 +11908,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11997,7 +12001,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12130,28 +12134,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.3502242702237504E-2</v>
+        <v>0.21425784839864773</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5451569891566252E-2</v>
+        <v>0.14998049387905338</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4801794161790003E-2</v>
+        <v>0.17140627871891817</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12181,21 +12185,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9769959942451758E-2</v>
+        <v>6.8217054263565904E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12226,15 +12230,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12251,24 +12255,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>20.124223254874526</v>
+        <v>29.478333490498027</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>24.026162998244828</v>
+        <v>36.947090383541045</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12276,18 +12280,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.7198672791180067</v>
+        <v>9.2727014527559408</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.003623989159708</v>
+        <v>12.546147262847647</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12306,14 +12310,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12330,21 +12334,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8092022.439574277</v>
+        <v>12443796.559710102</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.005295618272442</v>
+        <v>14.655941606840051</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.945249281211936</v>
+        <v>18.369233775659779</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.454137608938325</v>
+        <v>26.840723583341934</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12393,27 +12397,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8092022.439574277</v>
+        <v>12443796.559710102</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.3289815822808606</v>
+        <v>14.035699537562428</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>10.005295618272442</v>
+        <v>14.655941606840051</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.975272449742189</v>
+        <v>16.512587691249916</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.945249281211936</v>
+        <v>18.369233775659779</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.454137608938325</v>
+        <v>26.840723583341934</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12430,14 +12434,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12454,27 +12458,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>3369225.0320310183</v>
+        <v>4225548.0073361322</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7449756989112757</v>
+        <v>4.6101714356769081</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.8381384107679826</v>
+        <v>4.6101714356769081</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4058537634250303</v>
+        <v>5.423911986195538</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9735691160820785</v>
+        <v>6.2376525367141689</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2672706710441197</v>
+        <v>9.1143217834551837</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,21 +12488,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12511,31 +12515,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4688951.0702783689</v>
+        <v>6525682.9469700474</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.5369786405960681</v>
+        <v>9.3229354866196683</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.9217170145202118</v>
+        <v>9.6330565212584798</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.6905631065836095</v>
+        <v>10.968249838722727</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.4594091986470072</v>
+        <v>12.303443156186974</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.360704139991222</v>
+        <v>17.977522683398558</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2466C82C-A416-4ABE-82BB-ECCC0A6C5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{485A9A7D-C9EA-47E3-9F99-81CFFFFEFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4183,7 +4187,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5271317829457363E-2</v>
+        <v>8.3969465648854977E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4918,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.45</v>
+        <v>6.55</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4959,7 +4963,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>4369.3977000000004</v>
+        <v>4437.1403</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5191,7 +5195,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.8340920033615413</v>
+        <v>5.9245430421733474</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5223,7 +5227,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5271317829457363E-2</v>
+        <v>8.3969465648854977E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,20 +5257,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6101714356769081</v>
+        <v>4.5849302388654909</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.48147005097346</v>
+        <v>10.418754733661828</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.423911986195538</v>
+        <v>5.394035575135872</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1143217834551837</v>
+        <v>9.0597867249233293</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12138,17 +12142,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21425784839864773</v>
+        <v>0.2109867362093554</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14998049387905338</v>
+        <v>0.14769071534654876</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17140627871891817</v>
+        <v>0.1687893889674843</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12189,17 +12193,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5271317829457363E-2</v>
+        <v>8.3969465648854977E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8217054263565904E-2</v>
+        <v>6.7175572519083987E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5271317829457363E-2</v>
+        <v>8.3969465648854977E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12259,14 +12263,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.478333490498027</v>
+        <v>29.186021620180384</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>36.947090383541045</v>
+        <v>36.536236190407188</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12284,14 +12288,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.2727014527559408</v>
+        <v>9.2275863878594233</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.546147262847647</v>
+        <v>12.471078059501036</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12334,21 +12338,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12443796.559710102</v>
+        <v>12305420.683775388</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.655941606840051</v>
+        <v>14.510610945466588</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.369233775659779</v>
+        <v>18.164966629233874</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.840723583341934</v>
+        <v>26.542252886015373</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12397,27 +12401,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12443796.559710102</v>
+        <v>12305420.683775388</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.035699537562428</v>
+        <v>13.887120469247696</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.655941606840051</v>
+        <v>14.510610945466588</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.512587691249916</v>
+        <v>16.337788787350231</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.369233775659779</v>
+        <v>18.164966629233874</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>26.840723583341934</v>
+        <v>26.542252886015373</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12458,27 +12462,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4225548.0073361322</v>
+        <v>4200264.6660865899</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6101714356769081</v>
+        <v>4.5849302388654909</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.6101714356769081</v>
+        <v>4.5877412749988871</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.423911986195538</v>
+        <v>5.394035575135872</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2376525367141689</v>
+        <v>6.2003298752728568</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1143217834551837</v>
+        <v>9.0597867249233293</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12519,27 +12523,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6525682.9469700474</v>
+        <v>6468860.1756505221</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.3229354866196683</v>
+        <v>9.2360253540565935</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.6330565212584798</v>
+        <v>9.5491761102327377</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.968249838722727</v>
+        <v>10.865912181243051</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.303443156186974</v>
+        <v>12.182648252253365</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.977522683398558</v>
+        <v>17.801019805469352</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485A9A7D-C9EA-47E3-9F99-81CFFFFEFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C82919B-84B4-4535-B1E5-C5C224725363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3969465648854977E-2</v>
+        <v>8.3841463414634151E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4832,7 +4832,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.55</v>
+        <v>6.56</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>4437.1403</v>
+        <v>4443.9145600000002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9245430421733474</v>
+        <v>5.9335881460545279</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3969465648854977E-2</v>
+        <v>8.3841463414634151E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5257,20 +5257,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5849302388654909</v>
+        <v>4.5824394432307098</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.418754733661828</v>
+        <v>10.412604611370488</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.394035575135872</v>
+        <v>5.3911052273302467</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.0597867249233293</v>
+        <v>9.054438792496077</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12142,17 +12142,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2109867362093554</v>
+        <v>0.21066511008708505</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14769071534654876</v>
+        <v>0.14746557706095953</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1687893889674843</v>
+        <v>0.16853208806966802</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12193,17 +12193,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3969465648854977E-2</v>
+        <v>8.3841463414634151E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7175572519083987E-2</v>
+        <v>6.7073170731707335E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3969465648854977E-2</v>
+        <v>8.3841463414634151E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.186021620180384</v>
+        <v>29.157406274106016</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>36.536236190407188</v>
+        <v>36.49603789493397</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12288,14 +12288,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.2275863878594233</v>
+        <v>9.2231600308499946</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.471078059501036</v>
+        <v>12.463716464269027</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12338,21 +12338,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12305420.683775388</v>
+        <v>12291881.879887903</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.510610945466588</v>
+        <v>14.496384061125903</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.164966629233874</v>
+        <v>18.144980971925943</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.542252886015373</v>
+        <v>26.51305027963642</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12401,27 +12401,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12305420.683775388</v>
+        <v>12291881.879887903</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.887120469247696</v>
+        <v>13.872580139047034</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.510610945466588</v>
+        <v>14.496384061125903</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.337788787350231</v>
+        <v>16.320682516525924</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.164966629233874</v>
+        <v>18.144980971925943</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>26.542252886015373</v>
+        <v>26.51305027963642</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12462,27 +12462,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4200264.6660865899</v>
+        <v>4197785.2775211819</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5849302388654909</v>
+        <v>4.5824394432307098</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5877412749988871</v>
+        <v>4.5855405932716753</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.394035575135872</v>
+        <v>5.3911052273302467</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2003298752728568</v>
+        <v>6.1966698613888189</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.0597867249233293</v>
+        <v>9.054438792496077</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12523,27 +12523,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6468860.1756505221</v>
+        <v>6463295.9454649668</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.2360253540565935</v>
+        <v>9.2275097911388713</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.5491761102327377</v>
+        <v>9.5409623271987893</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.865912181243051</v>
+        <v>10.855893871928085</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.182648252253365</v>
+        <v>12.170825416657381</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.801019805469352</v>
+        <v>17.783744536066248</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C82919B-84B4-4535-B1E5-C5C224725363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FE75C6-A553-4850-A851-C7A1E7A4E2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FE75C6-A553-4850-A851-C7A1E7A4E2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B63C54-C8E8-4FD6-BE78-C76328EE066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B63C54-C8E8-4FD6-BE78-C76328EE066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B811D4-999B-4DBF-97FB-47663E732EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4624,7 +4624,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B811D4-999B-4DBF-97FB-47663E732EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB77E66-DFE6-4C99-A0F1-D8AE99C3BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5061,7 +5061,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5108,7 +5108,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5257,20 +5257,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5824394432307098</v>
+        <v>4.6890078023756114</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.412604611370488</v>
+        <v>10.730038817949525</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3911052273302467</v>
+        <v>5.5164797675007193</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.054438792496077</v>
+        <v>9.3304685373474143</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.157406274106016</v>
+        <v>29.835485489782901</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>36.49603789493397</v>
+        <v>37.344782962258016</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12288,14 +12288,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.2231600308499946</v>
+        <v>9.4376521245906932</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.463716464269027</v>
+        <v>12.753570335531098</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12338,21 +12338,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12291881.879887903</v>
+        <v>12577739.598024832</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.496384061125903</v>
+        <v>14.833509271849762</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.144980971925943</v>
+        <v>18.566957273598639</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.51305027963642</v>
+        <v>27.321315780308186</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12401,27 +12401,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12291881.879887903</v>
+        <v>12577739.598024832</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.872580139047034</v>
+        <v>14.195198281815571</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.496384061125903</v>
+        <v>14.833509271849762</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.320682516525924</v>
+        <v>16.700233272724201</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.144980971925943</v>
+        <v>18.566957273598639</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>26.51305027963642</v>
+        <v>27.321315780308186</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12462,27 +12462,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4197785.2775211819</v>
+        <v>4295408.190951908</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5824394432307098</v>
+        <v>4.6890078023756114</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5855405932716753</v>
+        <v>4.6921810721849706</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.3911052273302467</v>
+        <v>5.5164797675007193</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1966698613888189</v>
+        <v>6.3407784628164672</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.054438792496077</v>
+        <v>9.3304685373474143</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12523,27 +12523,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6463295.9454649668</v>
+        <v>6613605.1534990361</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.2275097911388713</v>
+        <v>9.4421030420955923</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.5409623271987893</v>
+        <v>9.7628451720173661</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.855893871928085</v>
+        <v>11.10835652011246</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.170825416657381</v>
+        <v>12.453867868207553</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.783744536066248</v>
+        <v>18.325892158827799</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB77E66-DFE6-4C99-A0F1-D8AE99C3BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F891D06-98A0-4821-ADDF-A8A4BBAB6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>677426000</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,430 +3806,430 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>25013339</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>19751940</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>21987559</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>14997541</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>17736226</v>
       </c>
-      <c r="H25" s="150">
+      <c r="H25" s="149">
         <v>18806342</v>
       </c>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>18409837</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>15140010</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>16431474</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>10877614</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>12958750</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="150">
         <v>14175208</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>5225366</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>4709830</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>4571128</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>3136777</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>3470831</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="150">
         <v>3388718</v>
       </c>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>129899</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>81860</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>60486</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>76137</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>89162</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="150">
         <v>36991</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-13497</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-10604</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>-3488</v>
       </c>
-      <c r="F30" s="151">
-        <v>0</v>
-      </c>
-      <c r="G30" s="151">
-        <v>0</v>
-      </c>
-      <c r="H30" s="151">
-        <v>0</v>
-      </c>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="F30" s="150">
+        <v>0</v>
+      </c>
+      <c r="G30" s="150">
+        <v>0</v>
+      </c>
+      <c r="H30" s="150">
+        <v>0</v>
+      </c>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.15+0.4</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3841463414634151E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>8.4097859327217125E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4234,10 +4238,10 @@
       <c r="B47" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4336,7 +4340,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4348,7 +4352,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4368,7 +4372,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4448,7 +4452,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4461,7 +4465,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4509,14 +4513,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4600,7 +4604,7 @@
       <c r="B86" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4608,19 +4612,20 @@
       <c r="B87" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4634,14 +4639,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4653,12 +4658,12 @@
         <f>C25</f>
         <v>25013339</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91*0.7</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91*0.8</f>
         <v>20010671.199999999</v>
       </c>
@@ -4671,15 +4676,15 @@
         <f>C26</f>
         <v>18409837</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>14727869.6</v>
       </c>
@@ -4692,15 +4697,15 @@
         <f>C27+C28</f>
         <v>5225366</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>4180292.8</v>
       </c>
@@ -4713,12 +4718,12 @@
         <f>C29</f>
         <v>129899</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>103919.2</v>
       </c>
@@ -4731,15 +4736,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4752,12 +4757,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4770,12 +4775,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4784,16 +4789,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4912,17 +4917,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.56</v>
+        <v>6.54</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4932,40 +4937,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4443.9145600000002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>4430.3660399999999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4973,11 +4978,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4988,22 +4993,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -5032,7 +5037,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5043,7 +5048,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5057,11 +5062,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5070,7 +5075,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5081,7 +5086,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5092,10 +5097,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5107,10 +5112,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5132,14 +5137,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.73600077942413045</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5147,7 +5152,7 @@
       <c r="B21" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.20890317762054877</v>
       </c>
@@ -5158,7 +5163,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5170,14 +5175,14 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5186,30 +5191,30 @@
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9335881460545279</v>
+        <v>5.9154979382921669</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.49748071346493766</v>
       </c>
@@ -5218,16 +5223,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9902853833308697E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3841463414634151E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5246,10 +5251,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5257,22 +5262,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6890078023756114</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.730038817949525</v>
+        <v>10.424926582683533</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.5164797675007193</v>
-      </c>
-      <c r="G29" s="273">
+        <v>5.3969761771789511</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.3304685373474143</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>9.0651535501595948</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,17 +5289,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5304,7 +5309,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5312,17 +5317,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5332,24 +5337,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5359,7 +5364,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5378,10 +5383,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6363,16 +6368,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6386,11 +6391,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85">
@@ -6423,7 +6428,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93">
@@ -6487,47 +6492,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>25013339</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>19751940</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>21987559</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>14997541</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>17736226</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>18806342</v>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6589,47 +6594,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18409837</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>15140010</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>16431474</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>10877614</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>12958750</v>
       </c>
-      <c r="H8" s="200">
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>14175208</v>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6640,47 +6645,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6603502</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>4611930</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>5556085</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>4119927</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>4777476</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
         <v>4631134</v>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6691,47 +6696,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>5225366</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>4709830</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>4571128</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>3136777</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>3470831</v>
       </c>
-      <c r="H10" s="200">
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>3388718</v>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6742,47 +6747,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6793,47 +6798,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6841,50 +6846,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>-4.9564751614271816E-3</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>4.4796104924607595E-2</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>6.5554079832153819E-2</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>7.3670971490778253E-2</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
         <v>6.6063671499752577E-2</v>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6892,50 +6897,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1378136</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-97900</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>984957</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>983150</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>1306645</v>
       </c>
-      <c r="H14" s="231">
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
         <v>1242416</v>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6943,50 +6948,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233" t="str">
+      <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>1.8379697909779789E-3</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>-0.24757680930933804</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
         <v>5.1696855159624473E-2</v>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6997,47 +7002,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7048,47 +7053,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>129899</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>81860</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>60486</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>76137</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>89162</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>36991</v>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7099,47 +7104,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7150,47 +7155,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7201,47 +7206,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7252,47 +7257,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7303,47 +7308,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1248237</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-179760</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>924471</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>907013</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>1217483</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
         <v>1205425</v>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7354,47 +7359,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-6.8256586441635602E-3</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>3.1533889232542821E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>4.5358085702182777E-2</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>5.1482894388016932E-2</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
         <v>4.8072546484584824E-2</v>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7405,7 +7410,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>936177.75</v>
       </c>
@@ -7453,50 +7458,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>1.9247794684309927E-2</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>-0.25500972087495266</v>
       </c>
-      <c r="G25" s="234">
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
         <v>1.0003110935976937E-2</v>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7613,43 +7618,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7664,43 +7669,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7715,43 +7720,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7766,43 +7771,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7817,43 +7822,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7868,43 +7873,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7919,43 +7924,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8021,43 +8026,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8072,43 +8077,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8123,43 +8128,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8221,47 +8226,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8290,47 +8295,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.76650749242859184</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.74730778437024314</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.72529316639307739</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.73063739715540388</v>
       </c>
-      <c r="H42" s="157">
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
         <v>0.75374615648274401</v>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8341,47 +8346,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.23844898273283535</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.20789611070514921</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.2091527537747688</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.1956916313538179</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
         <v>0.18019017201750345</v>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8392,47 +8397,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8443,47 +8448,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>4.1444030307908998E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>2.7509192812171647E-3</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>5.0766322292434473E-3</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>5.0271123067556758E-3</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
         <v>1.9669428536394796E-3</v>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8494,47 +8499,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8545,47 +8550,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8596,47 +8601,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-9.1008781922180815E-3</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>4.204518564339043E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>6.0477447602910371E-2</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>6.8643859184022576E-2</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
         <v>6.4096728646113099E-2</v>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8665,47 +8670,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8716,47 +8721,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8784,47 +8789,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8834,47 +8839,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8884,47 +8889,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10406597465064728</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-0.4553849577214063</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>6.5427687834448023E-2</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>8.3942567526595541E-2</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>7.3234698143629109E-2</v>
       </c>
-      <c r="H55" s="154">
+      <c r="H55" s="153">
         <f t="shared" si="45"/>
         <v>3.0687102059439617E-2</v>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8934,47 +8939,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10272,8 +10277,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10322,7 +10327,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10419,7 +10424,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10466,7 +10471,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10494,7 +10499,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10522,7 +10527,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10550,7 +10555,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10563,7 +10568,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10578,7 +10583,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10605,7 +10610,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10627,7 +10632,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10649,7 +10654,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10670,7 +10675,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10695,7 +10700,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10722,7 +10727,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10743,7 +10748,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10908,7 +10913,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10937,7 +10942,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10963,7 +10968,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10990,7 +10995,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11017,7 +11022,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11033,7 +11038,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11047,7 +11052,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11074,7 +11079,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11100,7 +11105,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11127,7 +11132,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11154,7 +11159,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11175,7 +11180,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11196,7 +11201,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11217,7 +11222,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11238,7 +11243,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11384,7 +11389,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11493,11 +11498,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11508,11 +11513,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11524,11 +11529,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11624,8 +11629,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11705,8 +11710,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11742,19 +11747,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11764,18 +11769,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11786,17 +11791,17 @@
         <f>Data!C6</f>
         <v>25013339</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>20010671.199999999</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11807,23 +11812,23 @@
         <f>Data!C8</f>
         <v>18409837</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>14727869.6</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.73600077942413045</v>
       </c>
@@ -11833,21 +11838,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>6603502</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>4622451.4000000004</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>5282801.5999999996</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11858,23 +11863,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>5225366</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>4180292.8</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.20890317762054877</v>
       </c>
@@ -11888,54 +11893,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1378136</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>964695.20000000019</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>5.5096042955320765E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1102508.7999999998</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>5.5096042955320751E-2</v>
       </c>
@@ -11949,27 +11954,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11981,23 +11986,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>129899</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>90929.3</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>103919.2</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
@@ -12011,23 +12016,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12037,27 +12042,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1248237</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>873765.90000000014</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>4.9902853833308704E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>998589.59999999986</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
@@ -12067,49 +12072,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>936177.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>655324.42500000005</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>748942.2</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
@@ -12119,69 +12124,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.3819631221712778</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.9673741855198944</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1055704977370222</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21066511008708505</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.21130934589774891</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14746557706095953</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.14791654212842423</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16853208806966802</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.16904747671819911</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.3979845707719501</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.45483950945365731</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.49748071346493766</v>
       </c>
@@ -12191,21 +12196,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3841463414634151E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>8.4097859327217125E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7073170731707335E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.7278287461773709E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3841463414634151E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>8.4097859327217125E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12227,22 +12232,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12252,9 +12257,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12262,15 +12267,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.835485489782901</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>29.214747040396965</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>37.344782962258016</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>36.576592992178412</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12278,24 +12283,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.4376521245906932</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>9.2320279881983556</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.753570335531098</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.478465661271951</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12316,14 +12324,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12338,21 +12346,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12577739.598024832</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>12319012.872654904</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.833509271849762</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>14.52489255610994</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.566957273598639</v>
+        <v>18.185031092185572</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.321315780308186</v>
+        <v>26.57157064148149</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,14 +12372,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12382,17 +12390,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12401,27 +12409,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12577739.598024832</v>
+        <v>12319012.872654904</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.195198281815571</v>
+        <v>13.901717550525593</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.833509271849762</v>
+        <v>14.52489255610994</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.700233272724201</v>
+        <v>16.354961824147757</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.566957273598639</v>
+        <v>18.185031092185572</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.321315780308186</v>
+        <v>26.57157064148149</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12440,14 +12448,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12462,27 +12470,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4295408.190951908</v>
+        <v>4202752.8136659302</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6890078023756114</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.6921810721849706</v>
+        <v>4.5899495353548971</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.5164797675007193</v>
+        <v>5.3969761771789511</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.3407784628164672</v>
+        <v>6.204002819003005</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.3304685373474143</v>
+        <v>9.0651535501595948</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12501,14 +12509,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12523,27 +12531,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6613605.1534990361</v>
+        <v>6474445.5093263295</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.4421030420955923</v>
+        <v>9.2445736505638507</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.7628451720173661</v>
+        <v>9.5574210457324185</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.10835652011246</v>
+        <v>10.875969000663353</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.453867868207553</v>
+        <v>12.194516955594288</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.325892158827799</v>
+        <v>17.818362095820543</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F891D06-98A0-4821-ADDF-A8A4BBAB6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{187FCBFF-45B8-493B-B61A-6974D2EB300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>周生生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3704,7 +3707,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4613,9 +4616,11 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4927,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.54</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4968,7 +4973,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4430.3660399999999</v>
+        <v>4403.2690000000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5006,7 +5011,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5063,10 +5068,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5113,7 +5118,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5200,7 +5205,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9154979382921669</v>
+        <v>5.8793175227674448</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5232,7 +5237,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5262,20 +5267,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5874297506021087</v>
+        <v>4.5975158726793035</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.424926582683533</v>
+        <v>9.5223966934226585</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3969761771789511</v>
+        <v>5.4088422031521217</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.0651535501595948</v>
+        <v>8.2803449508023128</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12147,17 +12152,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21130934589774891</v>
+        <v>0.21260971110327351</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14791654212842423</v>
+        <v>0.14882679777229144</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16904747671819911</v>
+        <v>0.17008776888261881</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12198,17 +12203,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7278287461773709E-2</v>
+        <v>6.7692307692307704E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12257,7 +12262,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12268,14 +12273,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.214747040396965</v>
+        <v>29.330761991062342</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.576592992178412</v>
+        <v>36.739623678814858</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12289,21 +12294,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2320279881983556</v>
+        <v>9.2499483985301296</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.478465661271951</v>
+        <v>12.508278884196574</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12346,21 +12351,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12319012.872654904</v>
+        <v>12373921.680802824</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.52489255610994</v>
+        <v>14.582572490527545</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.185031092185572</v>
+        <v>18.266086156720917</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.57157064148149</v>
+        <v>24.321232380548413</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12409,27 +12414,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12319012.872654904</v>
+        <v>12373921.680802824</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.901717550525593</v>
+        <v>13.960679925080596</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.52489255610994</v>
+        <v>14.582572490527545</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.354961824147757</v>
+        <v>16.424329323624232</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.185031092185572</v>
+        <v>18.266086156720917</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>26.57157064148149</v>
+        <v>24.321232380548413</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12470,27 +12475,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4202752.8136659302</v>
+        <v>4212793.9204760222</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5874297506021087</v>
+        <v>4.5975158726793035</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5899495353548971</v>
+        <v>4.5988591464588549</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.3969761771789511</v>
+        <v>5.4088422031521217</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.204002819003005</v>
+        <v>6.2188252598453886</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.0651535501595948</v>
+        <v>8.2803449508023128</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12531,27 +12536,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6474445.5093263295</v>
+        <v>6497000.2540585743</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.2445736505638507</v>
+        <v>9.2790978988799502</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.5574210457324185</v>
+        <v>9.5907158184931998</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.875969000663353</v>
+        <v>10.916585763388177</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.194516955594288</v>
+        <v>12.242455708283153</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.818362095820543</v>
+        <v>16.300788665675363</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187FCBFF-45B8-493B-B61A-6974D2EB300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BA841E-DE5B-40D7-A5A9-5CD5ACC0BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.461538461538462E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4403.2690000000002</v>
+        <v>4430.3660399999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.8793175227674448</v>
+        <v>5.9154979382921669</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.461538461538462E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5267,20 +5267,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5975158726793035</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.5223966934226585</v>
+        <v>9.4997002586832355</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4088422031521217</v>
+        <v>5.3969761771789519</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.2803449508023128</v>
+        <v>8.2606089205941178</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21260971110327351</v>
+        <v>0.21130934589774891</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14882679777229144</v>
+        <v>0.14791654212842423</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17008776888261881</v>
+        <v>0.16904747671819911</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12203,17 +12203,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.461538461538462E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7692307692307704E-2</v>
+        <v>6.7278287461773709E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.461538461538462E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12273,14 +12273,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.330761991062342</v>
+        <v>29.214747040396972</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.739623678814858</v>
+        <v>36.576592992178419</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12301,14 +12301,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2499483985301296</v>
+        <v>9.2320279881983573</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.508278884196574</v>
+        <v>12.478465661271953</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12351,21 +12351,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12373921.680802824</v>
+        <v>12319012.872654906</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.582572490527545</v>
+        <v>14.524892556109943</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.266086156720917</v>
+        <v>18.185031092185575</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.321232380548413</v>
+        <v>24.213307834300771</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12414,27 +12414,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12373921.680802824</v>
+        <v>12319012.872654906</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.960679925080596</v>
+        <v>13.901717550525593</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.582572490527545</v>
+        <v>14.524892556109943</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.424329323624232</v>
+        <v>16.354961824147757</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.266086156720917</v>
+        <v>18.185031092185575</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.321232380548413</v>
+        <v>24.213307834300771</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12475,27 +12475,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4212793.9204760222</v>
+        <v>4202752.8136659302</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5975158726793035</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5988591464588549</v>
+        <v>4.589949535354898</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.4088422031521217</v>
+        <v>5.3969761771789519</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2188252598453886</v>
+        <v>6.2040028190030059</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2803449508023128</v>
+        <v>8.2606089205941178</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6497000.2540585743</v>
+        <v>6474445.5093263304</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.2790978988799502</v>
+        <v>9.2445736505638507</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.5907158184931998</v>
+        <v>9.5574210457324202</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.916585763388177</v>
+        <v>10.875969000663355</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.242455708283153</v>
+        <v>12.19451695559429</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.300788665675363</v>
+        <v>16.236958377447444</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BA841E-DE5B-40D7-A5A9-5CD5ACC0BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B304143-F15B-488B-80CF-1A8B1A091702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3707,7 +3715,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4194,7 +4202,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4315,7 +4323,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4427,7 +4435,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4616,7 +4624,7 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4932,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.54</v>
+        <v>6.72</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4973,7 +4981,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4430.3660399999999</v>
+        <v>4552.3027199999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5068,10 +5076,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5118,7 +5126,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5205,7 +5213,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9154979382921669</v>
+        <v>6.0783098081534197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5237,7 +5245,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5267,20 +5275,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5874297506021087</v>
+        <v>5.4278115445621662</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.4997002586832355</v>
+        <v>11.803387916692893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3969761771789519</v>
+        <v>6.3856606406613725</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.2606089205941178</v>
+        <v>10.263815579732951</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12152,17 +12160,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21130934589774891</v>
+        <v>0.20564927413263062</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14791654212842423</v>
+        <v>0.14395449189284143</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16904747671819911</v>
+        <v>0.1645194193061045</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12203,17 +12211,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7278287461773709E-2</v>
+        <v>6.5476190476190493E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4097859327217125E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12262,7 +12270,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12273,14 +12281,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.214747040396972</v>
+        <v>34.300934441931958</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.576592992178419</v>
+        <v>42.853651587801863</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12301,14 +12309,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.2320279881983573</v>
+        <v>10.935512476116266</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.478465661271953</v>
+        <v>14.752176376943938</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12351,21 +12359,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12319012.872654906</v>
+        <v>14433129.014047028</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.524892556109943</v>
+        <v>17.053626603520399</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.185031092185575</v>
+        <v>21.305838592033709</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.213307834300771</v>
+        <v>29.815395747488086</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12414,27 +12422,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>12319012.872654906</v>
+        <v>14433129.014047028</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.901717550525593</v>
+        <v>16.302772708110496</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.524892556109943</v>
+        <v>17.053626603520399</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.354961824147757</v>
+        <v>19.179732597777054</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.185031092185575</v>
+        <v>21.305838592033709</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.213307834300771</v>
+        <v>29.815395747488086</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12475,27 +12483,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4202752.8136659302</v>
+        <v>4968539.5992488917</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5874297506021087</v>
+        <v>5.4278115445621662</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.589949535354898</v>
+        <v>5.4368823916892035</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.3969761771789519</v>
+        <v>6.3856606406613725</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.2040028190030059</v>
+        <v>7.3344388896335415</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2606089205941178</v>
+        <v>10.263815579732951</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12536,27 +12544,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6474445.5093263304</v>
+        <v>7617827.7732944302</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.2445736505638507</v>
+        <v>10.865292126336332</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>9.5574210457324202</v>
+        <v>11.245254497604801</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.875969000663355</v>
+        <v>12.782696619219212</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.19451695559429</v>
+        <v>14.320138740833626</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.236958377447444</v>
+        <v>20.039605663610519</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B304143-F15B-488B-80CF-1A8B1A091702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A370D8-C73B-4114-BDBD-EEC88451951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3715,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4202,7 +4206,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4624,7 +4628,7 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4940,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4981,7 +4985,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4552.3027199999997</v>
+        <v>4545.5284600000005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5051,7 +5055,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5062,7 +5066,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5089,7 +5093,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5213,7 +5217,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.0783098081534197</v>
+        <v>6.0692647042722392</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5245,7 +5249,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5275,20 +5279,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.4278115445621662</v>
+        <v>5.4306274750083352</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.803387916692893</v>
+        <v>11.81004341188684</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.3856606406613725</v>
+        <v>6.388973500009806</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.263815579732951</v>
+        <v>10.269602966858121</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5323,8 +5327,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6350,12 +6354,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8781,118 +8785,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="e">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8900,107 +8905,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10406597465064728</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-0.4553849577214063</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.5427687834448023E-2</v>
-      </c>
-      <c r="F55" s="153">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>8.3942567526595541E-2</v>
-      </c>
-      <c r="G55" s="153">
+        <v/>
+      </c>
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>7.3234698143629109E-2</v>
-      </c>
-      <c r="H55" s="153">
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>3.0687102059439617E-2</v>
-      </c>
-      <c r="I55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10406597465064728</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-0.4553849577214063</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.5427687834448023E-2</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>8.3942567526595541E-2</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>7.3234698143629109E-2</v>
+      </c>
+      <c r="H56" s="153">
+        <f t="shared" si="46"/>
+        <v>3.0687102059439617E-2</v>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9568,7 +9620,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10251,6 +10305,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12160,17 +12215,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20564927413263062</v>
+        <v>0.20595575591226198</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14395449189284143</v>
+        <v>0.14416902913858337</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1645194193061045</v>
+        <v>0.16476460472980958</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12211,17 +12266,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5476190476190493E-2</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12281,14 +12336,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.300934441931958</v>
+        <v>34.333110497539373</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>42.853651587801863</v>
+        <v>42.89878400869776</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12309,14 +12364,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.935512476116266</v>
+        <v>10.940520954770044</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.752176376943938</v>
+        <v>14.760494585213458</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12359,21 +12414,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14433129.014047028</v>
+        <v>14448329.633582845</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.053626603520399</v>
+        <v>17.069623789802069</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.305838592033709</v>
+        <v>21.328277381710837</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.815395747488086</v>
+        <v>29.846796595261733</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12422,27 +12477,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14433129.014047028</v>
+        <v>14448329.633582845</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.302772708110496</v>
+        <v>16.319107997892985</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>17.053626603520399</v>
+        <v>17.069623789802069</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.179732597777054</v>
+        <v>19.198950585756453</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.305838592033709</v>
+        <v>21.328277381710837</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>29.815395747488086</v>
+        <v>29.846796595261733</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12483,27 +12538,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4968539.5992488917</v>
+        <v>4971341.1755130216</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.4278115445621662</v>
+        <v>5.4306274750083352</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4368823916892035</v>
+        <v>5.4393724907550993</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.3856606406613725</v>
+        <v>6.388973500009806</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3344388896335415</v>
+        <v>7.3385745092645127</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.263815579732951</v>
+        <v>10.269602966858121</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12544,27 +12599,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7617827.7732944302</v>
+        <v>7624089.6571763614</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.865292126336332</v>
+        <v>10.874867736450661</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.245254497604801</v>
+        <v>11.254498140278585</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.782696619219212</v>
+        <v>12.79396204288313</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.320138740833626</v>
+        <v>14.333425945487676</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.039605663610519</v>
+        <v>20.058199781059926</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A370D8-C73B-4114-BDBD-EEC88451951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2014EB98-5B62-4347-93B1-98FEB9F7DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.71</v>
+        <v>6.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4545.5284600000005</v>
+        <v>4552.3027199999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.0692647042722392</v>
+        <v>6.0783098081534197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,20 +5279,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.4306274750083352</v>
+        <v>5.4278115445621662</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.81004341188684</v>
+        <v>11.803387916692893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.388973500009806</v>
+        <v>6.3856606406613725</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.269602966858121</v>
+        <v>10.263815579732951</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10345,8 +10345,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20595575591226198</v>
+        <v>0.20564927413263062</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14416902913858337</v>
+        <v>0.14395449189284143</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16476460472980958</v>
+        <v>0.1645194193061045</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12266,17 +12266,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5573770491803282E-2</v>
+        <v>6.5476190476190493E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.184523809523811E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.333110497539373</v>
+        <v>34.300934441931958</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>42.89878400869776</v>
+        <v>42.853651587801863</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12364,14 +12364,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.940520954770044</v>
+        <v>10.935512476116266</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.760494585213458</v>
+        <v>14.752176376943938</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12414,21 +12414,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14448329.633582845</v>
+        <v>14433129.014047028</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.069623789802069</v>
+        <v>17.053626603520399</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.328277381710837</v>
+        <v>21.305838592033709</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.846796595261733</v>
+        <v>29.815395747488086</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12437,7 +12437,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12476,28 +12476,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>14448329.633582845</v>
+        <f>C97+C98+$C$99</f>
+        <v>14433129.014047028</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.319107997892985</v>
+        <v>16.302772708110496</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>17.069623789802069</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>17.053626603520399</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.198950585756453</v>
+        <v>19.179732597777054</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.328277381710837</v>
+        <v>21.305838592033709</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>29.846796595261733</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>29.815395747488086</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12538,27 +12538,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4971341.1755130216</v>
+        <v>4968539.5992488917</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.4306274750083352</v>
+        <v>5.4278115445621662</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4393724907550993</v>
+        <v>5.4368823916892035</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.388973500009806</v>
+        <v>6.3856606406613725</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3385745092645127</v>
+        <v>7.3344388896335415</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.269602966858121</v>
+        <v>10.263815579732951</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12599,27 +12599,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7624089.6571763614</v>
+        <v>7617827.7732944302</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.874867736450661</v>
+        <v>10.865292126336332</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.254498140278585</v>
+        <v>11.245254497604801</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.79396204288313</v>
+        <v>12.782696619219212</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.333425945487676</v>
+        <v>14.320138740833626</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.058199781059926</v>
+        <v>20.039605663610519</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2014EB98-5B62-4347-93B1-98FEB9F7DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E35BDC-6F5F-4CCB-9C88-D73781AAFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4552.3027199999997</v>
+        <v>4545.5284600000005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.0783098081534197</v>
+        <v>6.0692647042722392</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,20 +5279,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.4278115445621662</v>
+        <v>5.4306274750083352</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.803387916692893</v>
+        <v>11.81004341188684</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.3856606406613725</v>
+        <v>6.388973500009806</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.263815579732951</v>
+        <v>10.269602966858121</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20564927413263062</v>
+        <v>0.20595575591226198</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14395449189284143</v>
+        <v>0.14416902913858337</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1645194193061045</v>
+        <v>0.16476460472980958</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12266,17 +12266,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5476190476190493E-2</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.184523809523811E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.300934441931958</v>
+        <v>34.333110497539373</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>42.853651587801863</v>
+        <v>42.89878400869776</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12364,14 +12364,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.935512476116266</v>
+        <v>10.940520954770044</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.752176376943938</v>
+        <v>14.760494585213458</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12414,21 +12414,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14433129.014047028</v>
+        <v>14448329.633582845</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.053626603520399</v>
+        <v>17.069623789802069</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.305838592033709</v>
+        <v>21.328277381710837</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.815395747488086</v>
+        <v>29.846796595261733</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12477,27 +12477,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>14433129.014047028</v>
+        <v>14448329.633582845</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.302772708110496</v>
+        <v>16.319107997892985</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>17.053626603520399</v>
+        <v>17.069623789802069</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.179732597777054</v>
+        <v>19.198950585756453</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.305838592033709</v>
+        <v>21.328277381710837</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>29.815395747488086</v>
+        <v>29.846796595261733</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12538,27 +12538,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4968539.5992488917</v>
+        <v>4971341.1755130216</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.4278115445621662</v>
+        <v>5.4306274750083352</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4368823916892035</v>
+        <v>5.4393724907550993</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.3856606406613725</v>
+        <v>6.388973500009806</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3344388896335415</v>
+        <v>7.3385745092645127</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.263815579732951</v>
+        <v>10.269602966858121</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12599,27 +12599,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7617827.7732944302</v>
+        <v>7624089.6571763614</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.865292126336332</v>
+        <v>10.874867736450661</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.245254497604801</v>
+        <v>11.254498140278585</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.782696619219212</v>
+        <v>12.79396204288313</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.320138740833626</v>
+        <v>14.333425945487676</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.039605663610519</v>
+        <v>20.058199781059926</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E35BDC-6F5F-4CCB-9C88-D73781AAFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E987BF-F024-4FE6-A0B3-67FC34BB67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.71</v>
+        <v>6.66</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4545.5284600000005</v>
+        <v>4511.6571599999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5080,10 +5080,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5130,7 +5130,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.0692647042722392</v>
+        <v>6.0240391848663357</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,20 +5279,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.4306274750083352</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.81004341188684</v>
+        <v>10.527830955438109</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.388973500009806</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.269602966858121</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20595575591226198</v>
+        <v>0.20750197029598766</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14416902913858337</v>
+        <v>0.14525137920719136</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16476460472980958</v>
+        <v>0.16600157623679013</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12266,17 +12266,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5573770491803282E-2</v>
+        <v>6.6066066066066076E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1967213114754106E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.333110497539373</v>
+        <v>31.437417283897659</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>42.89878400869776</v>
+        <v>39.303423137144058</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12364,14 +12364,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.940520954770044</v>
+        <v>9.9935898767171523</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.760494585213458</v>
+        <v>13.490129403067987</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12414,21 +12414,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14448329.633582845</v>
+        <v>13237410.484607404</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.069623789802069</v>
+        <v>15.629952491418269</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.328277381710837</v>
+        <v>19.540747601372555</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.846796595261733</v>
+        <v>26.671984117436256</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12477,27 +12477,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>14448329.633582845</v>
+        <v>13237410.484607404</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.319107997892985</v>
+        <v>14.947547539436099</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>17.069623789802069</v>
+        <v>15.629952491418269</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.198950585756453</v>
+        <v>17.585350046395412</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.328277381710837</v>
+        <v>19.540747601372555</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>29.846796595261733</v>
+        <v>26.671984117436256</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12538,27 +12538,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4971341.1755130216</v>
+        <v>4543481.614203712</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.4306274750083352</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4393724907550993</v>
+        <v>4.9685803888162727</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.388973500009806</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3385745092645127</v>
+        <v>6.7069784953688103</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.269602966858121</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12599,27 +12599,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7624089.6571763614</v>
+        <v>6976990.8674628828</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.874867736450661</v>
+        <v>9.9548300326073793</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.254498140278585</v>
+        <v>10.299266440117272</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.79396204288313</v>
+        <v>11.711564744243976</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.333425945487676</v>
+        <v>13.123863048370684</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.058199781059926</v>
+        <v>17.91330986543035</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E987BF-F024-4FE6-A0B3-67FC34BB67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66296EB9-A263-4E27-8420-18D37D25BF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4206,7 +4217,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4944,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.66</v>
+        <v>6.59</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4985,7 +4996,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4511.6571599999997</v>
+        <v>4464.2373399999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5217,7 +5228,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.0240391848663357</v>
+        <v>5.9607234576980703</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5260,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,20 +5290,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.96211252577866</v>
+        <v>4.9806391355419475</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.527830955438109</v>
+        <v>10.570553072491961</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8377794420925415</v>
+        <v>5.8595754535787616</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1546356134244427</v>
+        <v>9.1917852804277924</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12215,17 +12226,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.20750197029598766</v>
+        <v>0.2097060883416203</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14525137920719136</v>
+        <v>0.14679426183913422</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16600157623679013</v>
+        <v>0.16776487067329623</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12266,17 +12277,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6066066066066076E-2</v>
+        <v>6.676783004552353E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12336,14 +12347,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.437417283897659</v>
+        <v>31.649751065036369</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.303423137144058</v>
+        <v>39.601507785861422</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12364,14 +12375,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9935898767171523</v>
+        <v>10.026525830909144</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.490129403067987</v>
+        <v>13.54487257759928</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12414,21 +12425,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13237410.484607404</v>
+        <v>13337805.527564937</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.629952491418269</v>
+        <v>15.735519907518356</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.540747601372555</v>
+        <v>19.68894835386439</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.671984117436256</v>
+        <v>26.874269526228741</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12477,27 +12488,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13237410.484607404</v>
+        <v>13337805.527564937</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.947547539436099</v>
+        <v>15.055399011087665</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.629952491418269</v>
+        <v>15.735519907518356</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.585350046395412</v>
+        <v>17.712234130691371</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.540747601372555</v>
+        <v>19.68894835386439</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.671984117436256</v>
+        <v>26.874269526228741</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12538,27 +12549,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4543481.614203712</v>
+        <v>4561919.1398607679</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.96211252577866</v>
+        <v>4.9806391355419475</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9685803888162727</v>
+        <v>4.9849553789953811</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8377794420925415</v>
+        <v>5.8595754535787616</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7069784953688103</v>
+        <v>6.7341955281621431</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1546356134244427</v>
+        <v>9.1917852804277924</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12599,27 +12610,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>6976990.8674628828</v>
+        <v>7018294.3457209272</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.9548300326073793</v>
+        <v>10.018019073314807</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.299266440117272</v>
+        <v>10.360237643256868</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.711564744243976</v>
+        <v>11.785904792135067</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.123863048370684</v>
+        <v>13.211571941013267</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.91330986543035</v>
+        <v>18.033027403328266</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66296EB9-A263-4E27-8420-18D37D25BF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5986D936-4C48-4882-A08B-0C77310ED721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>677426000</v>
@@ -3678,7 +3703,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3858,7 +3883,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>18409837</v>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>5225366</v>
@@ -3914,7 +3939,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>129899</v>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>-13497</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -4002,7 +4027,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4050,7 +4075,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4066,7 +4091,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4098,7 +4123,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4146,7 +4171,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4162,7 +4187,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4178,7 +4203,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4194,7 +4219,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.15+0.4</f>
@@ -4213,11 +4238,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3459787556904405E-2</v>
+        <v>8.3586626139817641E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4262,21 +4287,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4286,7 +4311,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4296,7 +4321,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4307,7 +4332,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4317,7 +4342,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4327,7 +4352,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4338,7 +4363,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4348,7 +4373,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4359,7 +4384,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4367,24 +4392,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4395,7 +4420,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4406,7 +4431,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4417,7 +4442,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4428,7 +4453,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4439,7 +4464,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4450,7 +4475,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4460,31 +4485,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4492,12 +4517,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4508,7 +4533,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4519,7 +4544,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4529,7 +4554,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4540,7 +4565,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4550,25 +4575,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4580,55 +4605,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4636,10 +4661,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4647,18 +4672,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4667,20 +4692,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4698,7 +4723,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4719,7 +4744,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4740,7 +4765,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4758,7 +4783,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4779,7 +4804,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4797,7 +4822,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4815,7 +4840,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4943,62 +4968,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>4464.2373399999997</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>4457.4630800000004</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5021,16 +5046,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5055,40 +5080,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5101,29 +5126,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5133,12 +5158,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5148,29 +5173,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.73600077942413045</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5178,7 +5203,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5189,26 +5214,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5217,30 +5242,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9607234576980703</v>
+        <v>5.9516783538168898</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5249,18 +5274,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9902853833308697E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3459787556904405E-2</v>
+        <v>8.3586626139817641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,62 +5295,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9806391355419475</v>
+        <v>4.9833225916140247</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.570553072491961</v>
+        <v>10.576741894373171</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8595754535787616</v>
-      </c>
-      <c r="G29" s="274">
+        <v>5.8627324607223823</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1917852804277924</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>9.1971668646723241</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5335,25 +5360,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5363,7 +5388,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5373,14 +5398,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5390,7 +5415,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5405,14 +5430,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6365,12 +6390,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6397,16 +6422,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6424,7 +6449,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6457,7 +6482,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6468,7 +6493,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6620,7 +6645,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6671,7 +6696,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6722,7 +6747,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6773,7 +6798,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6824,7 +6849,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6875,7 +6900,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6926,7 +6951,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6977,7 +7002,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7028,7 +7053,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7079,7 +7104,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7130,7 +7155,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7181,7 +7206,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7232,7 +7257,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7283,7 +7308,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7334,7 +7359,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7385,7 +7410,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7436,7 +7461,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7487,7 +7512,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7538,7 +7563,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7691,7 +7716,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7742,7 +7767,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7844,7 +7869,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8048,7 +8073,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8099,7 +8124,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8150,7 +8175,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8201,7 +8226,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8252,7 +8277,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8303,7 +8328,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8321,7 +8346,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8372,7 +8397,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8423,7 +8448,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8474,7 +8499,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8525,7 +8550,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8576,7 +8601,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8627,7 +8652,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8678,7 +8703,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8695,50 +8720,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8747,10 +8772,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8798,167 +8823,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8966,112 +8992,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10406597465064728</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.4553849577214063</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>6.5427687834448023E-2</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>8.3942567526595541E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>7.3234698143629109E-2</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>3.0687102059439617E-2</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10406597465064728</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.4553849577214063</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.5427687834448023E-2</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>8.3942567526595541E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>7.3234698143629109E-2</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.0687102059439617E-2</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9634,7 +9850,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10317,6 +10535,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10356,8 +10575,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10375,7 +10594,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10390,7 +10609,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10404,7 +10623,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10414,7 +10633,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10432,10 +10651,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10444,12 +10663,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10459,7 +10679,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10469,8 +10689,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10482,7 +10703,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10500,7 +10721,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10519,32 +10740,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10561,7 +10782,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10572,7 +10793,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10589,7 +10810,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10600,7 +10821,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10617,7 +10838,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10628,7 +10849,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10645,7 +10866,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10656,7 +10877,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10673,7 +10894,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10683,7 +10904,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10705,7 +10926,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10727,7 +10948,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10748,7 +10969,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10773,7 +10994,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10800,7 +11021,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10821,7 +11042,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10838,7 +11059,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10850,13 +11071,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10878,7 +11099,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10898,7 +11119,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10907,7 +11128,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10927,7 +11148,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10940,7 +11161,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10960,7 +11181,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11006,7 +11227,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11015,7 +11236,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11031,7 +11252,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11041,7 +11262,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11058,7 +11279,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11068,7 +11289,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11085,7 +11306,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11095,7 +11316,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11115,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11125,7 +11346,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11142,7 +11363,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11152,7 +11373,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11178,7 +11399,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11205,7 +11426,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11232,7 +11453,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11253,7 +11474,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11274,7 +11495,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11295,7 +11516,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11316,7 +11537,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11333,7 +11554,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11351,7 +11572,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11370,7 +11591,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11389,7 +11610,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11406,7 +11627,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11419,7 +11640,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11436,7 +11657,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11449,7 +11670,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11466,7 +11687,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11493,7 +11714,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11509,14 +11730,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11533,7 +11754,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11563,7 +11784,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11574,14 +11795,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11589,30 +11810,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11629,11 +11850,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11643,7 +11864,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11664,7 +11885,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11685,7 +11906,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11706,7 +11927,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11721,7 +11942,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11752,11 +11973,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11766,7 +11987,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11787,7 +12008,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11802,7 +12023,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11824,21 +12045,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11848,23 +12069,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11885,7 +12106,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11915,7 +12136,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11936,7 +12157,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11966,7 +12187,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11996,7 +12217,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12027,7 +12248,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12054,12 +12275,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12089,7 +12310,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12119,7 +12340,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12149,7 +12370,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12170,7 +12391,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12201,7 +12422,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12222,28 +12443,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2097060883416203</v>
+        <v>0.21002479060353765</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14679426183913422</v>
+        <v>0.14701735342247635</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16776487067329623</v>
+        <v>0.16801983248283012</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12273,21 +12494,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3459787556904405E-2</v>
+        <v>8.3586626139817641E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.676783004552353E-2</v>
+        <v>6.6869300911854113E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3459787556904405E-2</v>
+        <v>8.3586626139817641E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12304,29 +12525,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12343,24 +12564,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.649751065036369</v>
+        <v>31.680547961172344</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.601507785861422</v>
+        <v>39.644758282027226</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12371,18 +12592,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.026525830909144</v>
+        <v>10.031295349646749</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.54487257759928</v>
+        <v>13.552802796880295</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12401,51 +12622,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13337805.527564937</v>
+        <v>13352372.314010279</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.735519907518356</v>
+        <v>15.750831407796559</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.68894835386439</v>
+        <v>19.710451494348135</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.874269526228741</v>
+        <v>26.903620062511045</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12463,7 +12684,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12484,31 +12705,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13337805.527564937</v>
+        <v>13352372.314010279</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.055399011087665</v>
+        <v>15.071045233411494</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.735519907518356</v>
+        <v>15.750831407796559</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.712234130691371</v>
+        <v>17.730641451072348</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.68894835386439</v>
+        <v>19.710451494348135</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.874269526228741</v>
+        <v>26.903620062511045</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,58 +12739,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4561919.1398607679</v>
+        <v>4564590.0412601046</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9806391355419475</v>
+        <v>4.9833225916140247</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9849553789953811</v>
+        <v>4.9873266727502878</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8595754535787616</v>
+        <v>5.8627324607223823</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7341955281621431</v>
+        <v>6.7381382486944768</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1917852804277924</v>
+        <v>9.1971668646723241</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,58 +12800,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7018294.3457209272</v>
+        <v>7024283.7379362639</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.018019073314807</v>
+        <v>10.02718391251276</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.360237643256868</v>
+        <v>10.369079040273423</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.785904792135067</v>
+        <v>11.796686955897364</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.211571941013267</v>
+        <v>13.224294871521305</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.033027403328266</v>
+        <v>18.050393463591686</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12639,7 +12860,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12648,6 +12869,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5986D936-4C48-4882-A08B-0C77310ED721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F1C8E6-8D6D-4BA8-BDDB-00B743A9FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -872,14 +846,6 @@
     <t>C0003</t>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.73600077942413045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20890317762054877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1931891220120593E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9902853833308697E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>677426000</v>
@@ -3703,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3955,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>129899</v>
@@ -4091,7 +3254,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4187,7 +3350,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4219,7 +3382,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.15+0.4</f>
@@ -4238,7 +3401,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4287,13 +3450,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4352,7 +3515,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4363,7 +3526,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4464,7 +3627,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4475,7 +3638,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4635,7 +3798,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4653,7 +3816,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4661,10 +3824,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4674,16 +3837,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4692,10 +3855,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4744,7 +3907,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4765,7 +3928,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4783,7 +3946,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4822,7 +3985,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4840,7 +4003,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4926,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4968,13 +4131,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4983,47 +4146,47 @@
         <v>6.58</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>4457.4630800000004</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5046,16 +4209,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5080,40 +4243,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5126,29 +4289,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5158,12 +4321,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5171,9 +4334,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5181,59 +4344,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.73600077942413045</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.20890317762054877</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>5.5096042955320758E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5242,14 +4405,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -5258,14 +4421,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5274,14 +4437,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>4.9902853833308697E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5295,23 +4458,23 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5326,31 +4489,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>5.8627324607223823</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>9.1971668646723241</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5360,7 +4523,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5371,14 +4534,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5388,7 +4551,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5398,14 +4561,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5415,7 +4578,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5430,14 +4593,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6381,7 +5544,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6395,7 +5557,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6422,16 +5584,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6449,7 +5611,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6482,7 +5644,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6849,7 +6011,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6900,7 +6062,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6951,7 +6113,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7002,7 +6164,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7104,7 +6266,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7257,7 +6419,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7767,7 +6929,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8277,7 +7439,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8328,7 +7490,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8397,7 +7559,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8601,7 +7763,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8703,7 +7865,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8721,14 +7883,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8772,7 +7934,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8823,7 +7985,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8874,7 +8036,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8925,7 +8087,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8942,7 +8104,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9142,7 +8304,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9192,7 +8354,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9242,7 +8404,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10746,7 +9908,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10904,7 +10066,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11316,7 +10478,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11784,7 +10946,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11798,11 +10960,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11813,11 +10975,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11829,11 +10991,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11850,7 +11012,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11927,7 +11089,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11973,7 +11135,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12008,7 +11170,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12047,19 +11209,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12069,18 +11231,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12157,7 +11319,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12187,7 +11349,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12217,7 +11379,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12280,7 +11442,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12310,7 +11472,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12391,7 +11553,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12422,7 +11584,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12443,7 +11605,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12464,7 +11626,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12494,7 +11656,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12530,24 +11692,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12564,14 +11726,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>31.680547961172344</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -12581,7 +11743,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12592,14 +11754,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>10.031295349646749</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12622,14 +11784,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12739,21 +11901,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12766,7 +11928,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12800,21 +11962,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12827,7 +11989,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12860,7 +12022,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F1C8E6-8D6D-4BA8-BDDB-00B743A9FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A3616A-B7CF-411A-8AF4-5CC923B79814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>677426000</v>
@@ -2866,7 +2886,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3118,7 +3138,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>129899</v>
@@ -3220,9 +3240,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3238,7 +3258,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3254,7 +3274,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3269,10 +3289,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3284,9 +3305,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3333,10 +3354,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3350,9 +3372,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3366,7 +3388,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3382,7 +3404,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.15+0.4</f>
@@ -3401,11 +3423,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3450,13 +3472,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3474,7 +3496,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3484,7 +3506,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3515,7 +3537,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3526,7 +3548,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3560,7 +3582,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3627,7 +3649,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3638,7 +3660,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3685,7 +3707,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3798,7 +3820,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3816,7 +3838,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3824,10 +3846,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3835,7 +3857,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3843,10 +3865,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3868,7 +3890,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3907,7 +3929,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3928,7 +3950,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3946,7 +3968,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3985,7 +4007,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4003,7 +4025,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4026,28 +4048,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4089,8 +4116,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4131,7 +4158,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4143,15 +4170,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4171,7 +4198,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4184,7 +4211,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4457.4630800000004</v>
+        <v>4450.6888200000003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4218,7 +4245,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4243,40 +4270,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4289,29 +4316,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4321,12 +4348,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4336,7 +4363,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4344,21 +4371,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4366,10 +4393,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4377,58 +4404,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>5.5096042955320758E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9516783538168898</v>
+        <v>5.9426332499357093</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4437,18 +4464,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4458,40 +4485,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9833225916140247</v>
+        <v>4.9860153900816364</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.576741894373171</v>
+        <v>10.582952467537757</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8627324607223823</v>
+        <v>5.8659004589195725</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1971668646723241</v>
+        <v>9.2025673630763105</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4499,21 +4526,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4523,25 +4550,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4551,7 +4578,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4561,14 +4588,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4578,7 +4605,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4593,14 +4620,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5500,27 +5527,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5552,12 +5579,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5584,16 +5611,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5611,7 +5638,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5644,7 +5671,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5655,7 +5682,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6011,7 +6038,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6062,7 +6089,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6113,7 +6140,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6164,7 +6191,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6266,7 +6293,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6419,7 +6446,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6674,7 +6701,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6725,7 +6752,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6779,15 +6806,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6827,50 +6854,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6878,50 +6905,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6929,101 +6956,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7031,101 +7058,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7133,50 +7160,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7184,50 +7211,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7235,50 +7262,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7286,272 +7313,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.73600077942413045</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.76650749242859184</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.74730778437024314</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.72529316639307739</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.73063739715540388</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.75374615648274401</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.20890317762054877</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.23844898273283535</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20789611070514921</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.2091527537747688</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.1956916313538179</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.18019017201750345</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.73600077942413045</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.76650749242859184</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.74730778437024314</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.72529316639307739</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.73063739715540388</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.75374615648274401</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7559,50 +7586,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.20890317762054877</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.23844898273283535</v>
+        <f t="shared" si="37"/>
+        <v>4.1444030307908998E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20789611070514921</v>
+        <f t="shared" si="37"/>
+        <v>2.7509192812171647E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.2091527537747688</v>
+        <f t="shared" si="37"/>
+        <v>5.0766322292434473E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.1956916313538179</v>
+        <f t="shared" si="37"/>
+        <v>5.0271123067556758E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.18019017201750345</v>
+        <f t="shared" si="37"/>
+        <v>1.9669428536394796E-3</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7610,50 +7637,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7661,50 +7688,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>5.1931891220120593E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.1444030307908998E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.7509192812171647E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.0766322292434473E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.0271123067556758E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.9669428536394796E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7712,221 +7739,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-9.1008781922180815E-3</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>4.204518564339043E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.0477447602910371E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.8643859184022576E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.4096728646113099E-2</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.9902853833308697E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-9.1008781922180815E-3</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.204518564339043E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.0477447602910371E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.8643859184022576E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.4096728646113099E-2</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7934,522 +7961,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.10406597465064728</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.4553849577214063</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.5427687834448023E-2</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>8.3942567526595541E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>7.3234698143629109E-2</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.0687102059439617E-2</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.10406597465064728</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.4553849577214063</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.5427687834448023E-2</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>8.3942567526595541E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>7.3234698143629109E-2</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.0687102059439617E-2</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9009,12 +8940,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9696,27 +9623,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9908,7 +9838,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9955,7 +9885,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9983,7 +9913,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10066,7 +9996,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10088,7 +10018,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10156,7 +10086,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10478,7 +10408,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10615,7 +10545,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10946,7 +10876,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11012,7 +10942,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11047,7 +10977,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11068,7 +10998,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11089,7 +11019,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11104,7 +11034,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11135,7 +11065,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11149,7 +11079,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11170,7 +11100,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11185,7 +11115,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11207,7 +11137,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11215,11 +11145,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11247,7 +11177,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11319,7 +11249,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11349,7 +11279,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11379,7 +11309,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11437,12 +11367,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11472,7 +11402,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11502,7 +11432,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11553,7 +11483,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11584,7 +11514,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11605,28 +11535,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21002479060353765</v>
+        <v>0.21034446303976831</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14701735342247635</v>
+        <v>0.1472411241278378</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16801983248283012</v>
+        <v>0.16827557043181463</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11656,21 +11586,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6869300911854113E-2</v>
+        <v>6.6971080669710817E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11687,27 +11617,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11726,24 +11656,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.680547961172344</v>
+        <v>31.711462685899331</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.644758282027226</v>
+        <v>39.688178391791119</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11754,18 +11684,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.031295349646749</v>
+        <v>10.036081210640805</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.552802796880295</v>
+        <v>13.560760887774048</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11784,14 +11714,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11804,31 +11734,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13352372.314010279</v>
+        <v>13366996.226391291</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.750831407796559</v>
+        <v>15.766201489708969</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.710451494348135</v>
+        <v>19.732038962766843</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.903620062511045</v>
+        <v>26.933085701520625</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11846,7 +11776,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11871,27 +11801,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13352372.314010279</v>
+        <v>13366996.226391291</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.071045233411494</v>
+        <v>15.086752192302219</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.750831407796559</v>
+        <v>15.766201489708969</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.730641451072348</v>
+        <v>17.749120226237906</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.710451494348135</v>
+        <v>19.732038962766843</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.903620062511045</v>
+        <v>26.933085701520625</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11901,21 +11831,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11928,31 +11858,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4564590.0412601046</v>
+        <v>4567270.329831074</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9833225916140247</v>
+        <v>4.9860153900816364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9873266727502878</v>
+        <v>4.9897060914949041</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8627324607223823</v>
+        <v>5.8659004589195725</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7381382486944768</v>
+        <v>6.7420948263442408</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1971668646723241</v>
+        <v>9.2025673630763105</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11962,21 +11892,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11989,31 +11919,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7024283.7379362639</v>
+        <v>7030295.7245523073</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.02718391251276</v>
+        <v>10.036383791191927</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.369079040273423</v>
+        <v>10.377953790601936</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.796686955897364</v>
+        <v>11.807510342578739</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.224294871521305</v>
+        <v>13.237066894555543</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.050393463591686</v>
+        <v>18.067826532298469</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12022,7 +11952,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9A3616A-B7CF-411A-8AF4-5CC923B79814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{966FD5E0-176A-441C-8A7A-F7EB86B5CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="192">
+        <v>677426000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="216">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="217">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="215" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="216">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="219" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="220">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="193">
-        <v>677426000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="219">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="220">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="219">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="223">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,444 +3048,448 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>25013339</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>19751940</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>21987559</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>14997541</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>17736226</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>18806342</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>18409837</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>15140010</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>16431474</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>10877614</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>12958750</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>14175208</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>5225366</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>4709830</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>4571128</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>3136777</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>3470831</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>3388718</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>129899</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>81860</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>60486</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>76137</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>89162</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>36991</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-13497</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-10604</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>-3488</v>
       </c>
-      <c r="F30" s="150">
-        <v>0</v>
-      </c>
-      <c r="G30" s="150">
-        <v>0</v>
-      </c>
-      <c r="H30" s="150">
-        <v>0</v>
-      </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="F30" s="149">
+        <v>0</v>
+      </c>
+      <c r="G30" s="149">
+        <v>0</v>
+      </c>
+      <c r="H30" s="149">
+        <v>0</v>
+      </c>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.15+0.4</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3713850837138518E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>8.5139318885448928E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3548,7 +3560,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3576,7 +3588,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3588,7 +3600,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3607,8 +3619,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3660,7 +3672,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3676,7 +3688,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3688,7 +3700,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3701,7 +3713,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3749,14 +3761,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3780,7 +3792,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3810,19 +3822,19 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3838,20 +3850,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="197">
+        <v>235</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>233</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3896,12 +3908,12 @@
         <f>C25</f>
         <v>25013339</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91*0.7</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91*0.8</f>
         <v>20010671.199999999</v>
       </c>
@@ -3914,75 +3926,75 @@
         <f>C26</f>
         <v>18409837</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>14727869.6</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>5225366</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>4180292.8</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>129899</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>103919.2</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3995,12 +4007,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4013,12 +4025,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4027,16 +4039,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4117,7 +4129,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4169,11 +4181,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>6.57</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>6.46</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4211,7 +4223,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4450.6888200000003</v>
+        <v>4376.1719599999997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4221,11 +4233,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4247,11 +4259,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4259,7 +4271,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4269,10 +4281,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4280,7 +4292,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4288,13 +4300,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4303,12 +4315,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4318,7 +4330,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4329,7 +4341,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4337,13 +4349,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4353,49 +4365,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4403,79 +4415,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.9426332499357093</v>
+        <v>5.8431371072427218</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.49748071346493766</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3713850837138518E-2</v>
+        <v>8.5139318885448928E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4492,10 +4504,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4503,22 +4515,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9860153900816364</v>
-      </c>
-      <c r="D29" s="129">
+        <v>5.0162668818817995</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>10.582952467537757</v>
+        <v>10.652737488789329</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8659004589195725</v>
+        <v>5.9014904492727052</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.2025673630763105</v>
+        <v>9.263249990251591</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4526,23 +4538,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4550,9 +4562,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4560,17 +4572,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4578,26 +4590,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4605,9 +4617,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4620,16 +4632,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5581,10 +5593,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5610,16 +5622,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5633,11 +5645,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85">
@@ -5662,7 +5674,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5670,7 +5682,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93">
@@ -5734,47 +5746,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>25013339</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>19751940</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>21987559</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>14997541</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>17736226</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>18806342</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5836,47 +5848,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18409837</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>15140010</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>16431474</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>10877614</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>12958750</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>14175208</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5887,47 +5899,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6603502</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>4611930</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>5556085</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>4119927</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>4777476</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>4631134</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5938,47 +5950,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>5225366</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>4709830</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>4571128</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>3136777</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>3470831</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>3388718</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5989,47 +6001,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6038,49 +6050,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6088,50 +6100,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>-4.9564751614271816E-3</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>4.4796104924607595E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>6.5554079832153819E-2</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>7.3670971490778253E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>6.6063671499752577E-2</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6139,50 +6151,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1378136</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-97900</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>984957</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>983150</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>1306645</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>1242416</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6190,50 +6202,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232" t="str">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>1.8379697909779789E-3</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-0.24757680930933804</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>5.1696855159624473E-2</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6244,47 +6256,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6293,49 +6305,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>129899</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>81860</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>60486</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>76137</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>89162</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>36991</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6346,47 +6358,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6397,47 +6409,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6446,49 +6458,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6499,47 +6511,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6550,47 +6562,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1248237</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-179760</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>924471</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>907013</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>1217483</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>1205425</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6601,47 +6613,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-6.8256586441635602E-3</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>3.1533889232542821E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>4.5358085702182777E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>5.1482894388016932E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>4.8072546484584824E-2</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6652,7 +6664,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>936177.75</v>
       </c>
@@ -6700,50 +6712,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233" t="str">
+      <c r="C25" s="230" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>1.9247794684309927E-2</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>-0.25500972087495266</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>1.0003110935976937E-2</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6860,43 +6872,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6911,43 +6923,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6956,49 +6968,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7013,43 +7025,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7064,43 +7076,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7166,43 +7178,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7217,43 +7229,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7268,43 +7280,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7366,47 +7378,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7415,7 +7427,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7435,47 +7447,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.76650749242859184</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.74730778437024314</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.72529316639307739</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.73063739715540388</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.75374615648274401</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7484,49 +7496,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.23844898273283535</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.20789611070514921</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.2091527537747688</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.1956916313538179</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.18019017201750345</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7537,47 +7549,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7588,47 +7600,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>4.1444030307908998E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>2.7509192812171647E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>5.0766322292434473E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>5.0271123067556758E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>1.9669428536394796E-3</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7639,47 +7651,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7688,49 +7700,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7741,47 +7753,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-9.1008781922180815E-3</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>4.204518564339043E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>6.0477447602910371E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>6.8643859184022576E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>6.4096728646113099E-2</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7790,9 +7802,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7807,50 +7821,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7859,49 +7873,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7910,49 +7924,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7961,49 +7975,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="e">
+      <c r="G51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8012,7 +8026,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8029,49 +8043,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8081,47 +8095,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8131,47 +8145,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10406597465064728</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-0.4553849577214063</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>6.5427687834448023E-2</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>8.3942567526595541E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>7.3234698143629109E-2</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>3.0687102059439617E-2</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8181,47 +8195,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8229,149 +8243,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9667,8 +9681,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9704,8 +9718,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9717,8 +9731,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9728,8 +9742,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9816,11 +9830,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9863,7 +9877,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9891,7 +9905,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9919,7 +9933,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9947,7 +9961,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9960,7 +9974,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9975,7 +9989,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10002,7 +10016,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10024,7 +10038,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10046,7 +10060,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10067,7 +10081,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10075,7 +10089,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10092,7 +10106,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10100,7 +10114,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10119,7 +10133,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10140,7 +10154,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10305,7 +10319,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10334,7 +10348,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10360,7 +10374,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10387,7 +10401,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10414,7 +10428,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10430,7 +10444,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10444,7 +10458,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10471,7 +10485,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10479,7 +10493,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10497,7 +10511,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10505,7 +10519,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10532,7 +10546,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10551,7 +10565,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10572,7 +10586,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10593,7 +10607,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10614,7 +10628,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10635,7 +10649,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10781,8 +10795,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10808,8 +10822,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10879,7 +10893,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10979,7 +10993,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10987,7 +11001,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11018,11 +11032,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11099,12 +11113,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11183,17 +11197,17 @@
         <f>Data!C6</f>
         <v>25013339</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>20010671.199999999</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11204,23 +11218,23 @@
         <f>Data!C8</f>
         <v>18409837</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>14727869.6</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.73600077942413045</v>
       </c>
@@ -11230,48 +11244,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>6603502</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>4622451.4000000004</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>5282801.5999999996</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>5225366</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>4180292.8</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.20890317762054877</v>
       </c>
@@ -11285,54 +11299,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1378136</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>964695.20000000019</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>5.5096042955320765E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1102508.7999999998</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>5.5096042955320751E-2</v>
       </c>
@@ -11346,55 +11360,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>129899</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>90929.3</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>103919.2</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
@@ -11402,29 +11416,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11434,27 +11448,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1248237</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>873765.90000000014</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>4.9902853833308704E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>998589.59999999986</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
@@ -11464,49 +11478,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>936177.75</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>655324.42500000005</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>748942.2</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
@@ -11516,69 +11530,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.3819631221712778</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.9673741855198944</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1055704977370222</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21034446303976831</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.2139261799026746</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1472411241278378</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.14974832593187221</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16827557043181463</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.17114094392213966</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.3979845707719501</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.45483950945365731</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.49748071346493766</v>
       </c>
@@ -11586,23 +11600,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3713850837138518E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.5139318885448928E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6971080669710817E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.8111455108359142E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3713850837138518E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.5139318885448928E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11624,7 +11638,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11647,27 +11661,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.711462685899331</v>
+        <v>32.059494618062104</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.688178391791119</v>
+        <v>40.177278161214637</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11675,27 +11689,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.036081210640805</v>
+        <v>10.089828595892396</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.560760887774048</v>
+        <v>13.650181868322116</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11709,25 +11723,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11738,21 +11752,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13366996.226391291</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>13531725.24740288</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.766201489708969</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>15.939234869521211</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.732038962766843</v>
-      </c>
-      <c r="I97" s="123">
+        <v>19.975207989363973</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.933085701520625</v>
+        <v>27.26499728175083</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11764,14 +11778,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11782,17 +11796,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11801,27 +11815,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13366996.226391291</v>
+        <v>13531725.24740288</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.086752192302219</v>
+        <v>15.263638215026202</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.766201489708969</v>
+        <v>15.939234869521211</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.749120226237906</v>
+        <v>17.95722142944259</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.732038962766843</v>
+        <v>19.975207989363973</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.933085701520625</v>
+        <v>27.26499728175083</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11833,25 +11847,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11862,27 +11876,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4567270.329831074</v>
+        <v>4597387.3560585473</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9860153900816364</v>
-      </c>
-      <c r="E103" s="123">
+        <v>5.0162668818817995</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9897060914949041</v>
+        <v>5.0164280410251099</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8659004589195725</v>
-      </c>
-      <c r="H103" s="123">
+        <v>5.9014904492727052</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7420948263442408</v>
+        <v>6.7865528575203005</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2025673630763105</v>
+        <v>9.263249990251591</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11894,25 +11908,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11923,27 +11937,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7030295.7245523073</v>
+        <v>7097955.4514198769</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.036383791191927</v>
-      </c>
-      <c r="E106" s="123">
+        <v>10.139952548454001</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>10.377953790601936</v>
+        <v>10.477831455273162</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.807510342578739</v>
-      </c>
-      <c r="H106" s="123">
+        <v>11.929355939357649</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>13.237066894555543</v>
-      </c>
-      <c r="I106" s="123">
+        <v>13.380880423442136</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>18.067826532298469</v>
+        <v>18.264123636001209</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11954,14 +11968,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966FD5E0-176A-441C-8A7A-F7EB86B5CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA254001-D027-4AE6-8617-73A5FB82AE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3300,9 +3300,7 @@
       <c r="B37" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3366,9 +3364,7 @@
       <c r="B41" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3384,9 +3380,7 @@
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3439,7 +3433,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5139318885448928E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4182,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>6.46</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4223,7 +4217,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4376.1719599999997</v>
+        <v>4403.2690000000002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4455,7 +4449,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.8431371072427218</v>
+        <v>5.8793175227674448</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4487,7 +4481,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5139318885448928E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4517,20 +4511,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0162668818817995</v>
+        <v>5.0051306820096322</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>10.652737488789329</v>
+        <v>10.627045178547524</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9014904492727052</v>
+        <v>5.8883890376583912</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.263249990251591</v>
+        <v>9.2409088509108912</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11553,17 +11547,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.2139261799026746</v>
+        <v>0.21260971110327351</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14974832593187221</v>
+        <v>0.14882679777229144</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17114094392213966</v>
+        <v>0.17008776888261881</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11604,17 +11598,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5139318885448928E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8111455108359142E-2</v>
+        <v>6.7692307692307704E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5139318885448928E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11674,14 +11668,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.059494618062104</v>
+        <v>31.931221301610133</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.177278161214637</v>
+        <v>39.996951138998448</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11702,14 +11696,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.089828595892396</v>
+        <v>10.070046916337953</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.650181868322116</v>
+        <v>13.617260311042866</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11752,21 +11746,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13531725.24740288</v>
+        <v>13470991.025698746</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.939234869521211</v>
+        <v>15.875460360821737</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.975207989363973</v>
+        <v>19.885553589172464</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.26499728175083</v>
+        <v>27.142624239186265</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11815,27 +11809,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>13531725.24740288</v>
+        <v>13470991.025698746</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.263638215026202</v>
+        <v>15.198430928747534</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.939234869521211</v>
+        <v>15.875460360821737</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>17.95722142944259</v>
+        <v>17.8805069749971</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.975207989363973</v>
+        <v>19.885553589172464</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>27.26499728175083</v>
+        <v>27.142624239186265</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11876,27 +11870,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4597387.3560585473</v>
+        <v>4586299.3608481223</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0162668818817995</v>
+        <v>5.0051306820096322</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0164280410251099</v>
+        <v>5.0065930501655149</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.9014904492727052</v>
+        <v>5.8883890376583912</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7865528575203005</v>
+        <v>6.7701850251512674</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.263249990251591</v>
+        <v>9.2409088509108912</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11937,27 +11931,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7097955.4514198769</v>
+        <v>7073022.9569957256</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.139952548454001</v>
+        <v>10.101780805378583</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>10.477831455273162</v>
+        <v>10.441026705493627</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.929355939357649</v>
+        <v>11.884448006327746</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>13.380880423442136</v>
+        <v>13.327869307161865</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>18.264123636001209</v>
+        <v>18.19176654504858</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA254001-D027-4AE6-8617-73A5FB82AE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{985AEDB0-B85F-4CA0-B25D-276EB7266454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -853,10 +850,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="190">
+        <v>677426000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="191" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>677426000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,836 +3039,873 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>25013339</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>19751940</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>21987559</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>14997541</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>17736226</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>18806342</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>18409837</v>
+      </c>
+      <c r="D26" s="148">
+        <v>15140010</v>
+      </c>
+      <c r="E26" s="148">
+        <v>16431474</v>
+      </c>
+      <c r="F26" s="148">
+        <v>10877614</v>
+      </c>
+      <c r="G26" s="148">
+        <v>12958750</v>
+      </c>
+      <c r="H26" s="148">
+        <v>14175208</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>5225366</v>
+      </c>
+      <c r="D27" s="148">
+        <v>4709830</v>
+      </c>
+      <c r="E27" s="148">
+        <v>4571128</v>
+      </c>
+      <c r="F27" s="148">
+        <v>3136777</v>
+      </c>
+      <c r="G27" s="148">
+        <v>3470831</v>
+      </c>
+      <c r="H27" s="148">
+        <v>3388718</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>18409837</v>
-      </c>
-      <c r="D26" s="149">
-        <v>15140010</v>
-      </c>
-      <c r="E26" s="149">
-        <v>16431474</v>
-      </c>
-      <c r="F26" s="149">
-        <v>10877614</v>
-      </c>
-      <c r="G26" s="149">
-        <v>12958750</v>
-      </c>
-      <c r="H26" s="149">
-        <v>14175208</v>
-      </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>129899</v>
+      </c>
+      <c r="D29" s="148">
+        <v>81860</v>
+      </c>
+      <c r="E29" s="148">
+        <v>60486</v>
+      </c>
+      <c r="F29" s="148">
+        <v>76137</v>
+      </c>
+      <c r="G29" s="148">
+        <v>89162</v>
+      </c>
+      <c r="H29" s="148">
+        <v>36991</v>
+      </c>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-13497</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-10604</v>
+      </c>
+      <c r="E30" s="148">
+        <v>-3488</v>
+      </c>
+      <c r="F30" s="148">
+        <v>0</v>
+      </c>
+      <c r="G30" s="148">
+        <v>0</v>
+      </c>
+      <c r="H30" s="148">
+        <v>0</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>5225366</v>
-      </c>
-      <c r="D27" s="149">
-        <v>4709830</v>
-      </c>
-      <c r="E27" s="149">
-        <v>4571128</v>
-      </c>
-      <c r="F27" s="149">
-        <v>3136777</v>
-      </c>
-      <c r="G27" s="149">
-        <v>3470831</v>
-      </c>
-      <c r="H27" s="149">
-        <v>3388718</v>
-      </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>129899</v>
-      </c>
-      <c r="D29" s="149">
-        <v>81860</v>
-      </c>
-      <c r="E29" s="149">
-        <v>60486</v>
-      </c>
-      <c r="F29" s="149">
-        <v>76137</v>
-      </c>
-      <c r="G29" s="149">
-        <v>89162</v>
-      </c>
-      <c r="H29" s="149">
-        <v>36991</v>
-      </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-13497</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-10604</v>
-      </c>
-      <c r="E30" s="149">
-        <v>-3488</v>
-      </c>
-      <c r="F30" s="149">
-        <v>0</v>
-      </c>
-      <c r="G30" s="149">
-        <v>0</v>
-      </c>
-      <c r="H30" s="149">
-        <v>0</v>
-      </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
+        <f>5391008+1339294</f>
+        <v>6730302</v>
+      </c>
+      <c r="D37" s="148">
+        <f>5356810+1423819</f>
+        <v>6780629</v>
+      </c>
+      <c r="E37" s="148">
+        <f>4182059+1163238</f>
+        <v>5345297</v>
+      </c>
+      <c r="F37" s="148">
+        <f>3657021+1150332</f>
+        <v>4807353</v>
+      </c>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148">
+        <v>229911</v>
+      </c>
+      <c r="D38" s="148">
+        <v>119344</v>
+      </c>
+      <c r="E38" s="148">
+        <v>219055</v>
+      </c>
+      <c r="F38" s="148">
+        <v>94344</v>
+      </c>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>12167429</v>
+      </c>
+      <c r="D41" s="148">
+        <v>11870228</v>
+      </c>
+      <c r="E41" s="148">
+        <v>12743461</v>
+      </c>
+      <c r="F41" s="148">
+        <v>12019114</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>-40166</v>
+      </c>
+      <c r="D42" s="148">
+        <v>-20315</v>
+      </c>
+      <c r="E42" s="148">
+        <v>-9659</v>
+      </c>
+      <c r="F42" s="148">
+        <v>0</v>
+      </c>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.15+0.4</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.461538461538462E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>8.5803432137285501E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="196">
+        <v>233</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>232</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3883,166 +3914,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>25013339</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91*0.7</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91*0.8</f>
         <v>20010671.199999999</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>18409837</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>14727869.6</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>232</v>
+      <c r="B93" s="103" t="s">
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>5225366</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>4180292.8</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>129899</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>103919.2</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4055,32 +4086,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4139,13 +4170,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4156,82 +4187,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0116.HK : 周生生</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>6.41</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>4403.2690000000002</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>4342.3006599999999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4242,30 +4273,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4275,280 +4306,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+        <v>0.11289168751093069</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="87"/>
+        <v>0.64598204937936732</v>
+      </c>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+        <v>1.32361599389895</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.35687906294748056</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.8793175227674448</v>
+        <v>5.7979115878368184</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.49748071346493766</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.461538461538462E-2</v>
+        <v>8.5803432137285501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0051306820096322</v>
-      </c>
-      <c r="D29" s="128">
+        <v>5.0289165962192985</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>10.627045178547524</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>10.685375182202227</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8883890376583912</v>
-      </c>
-      <c r="G29" s="286">
+        <v>5.9181309950462788</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.2409088509108912</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>9.2916305932193293</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4556,9 +4587,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4566,17 +4597,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4584,26 +4615,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4611,9 +4642,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4626,16 +4657,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5587,10 +5618,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5616,59 +5647,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>1242416</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1378136</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5676,19 +5707,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>1.7429143835659966E-2</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5737,928 +5768,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>25013339</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>19751940</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>21987559</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>14997541</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>17736226</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>18806342</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.26637378404349144</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-0.10167654353991729</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.46607760565548717</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>-0.15441193633865513</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>-5.690186852924406E-2</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>18409837</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>15140010</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>16431474</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>10877614</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>12958750</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>14175208</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6603502</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>4611930</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>5556085</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>4119927</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>4777476</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>4631134</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>5225366</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>4709830</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>4571128</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>3136777</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>3470831</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>3388718</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>-4.9564751614271816E-3</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>4.4796104924607595E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>6.5554079832153819E-2</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>7.3670971490778253E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>6.6063671499752577E-2</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1378136</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-97900</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>984957</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>983150</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>1306645</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>1242416</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229" t="str">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>1.8379697909779789E-3</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-0.24757680930933804</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>5.1696855159624473E-2</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>129899</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>81860</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>60486</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>76137</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>89162</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>36991</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1248237</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-179760</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>924471</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>907013</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>1217483</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>1205425</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-6.8256586441635602E-3</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>3.1533889232542821E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>4.5358085702182777E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>5.1482894388016932E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>4.8072546484584824E-2</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>936177.75</v>
       </c>
@@ -6702,63 +6733,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230" t="str">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>1.9247794684309927E-2</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>-0.25500972087495266</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>1.0003110935976937E-2</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6804,28 +6835,28 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>18897731</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="str">
+        <v>18650857</v>
+      </c>
+      <c r="E27" s="65">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
-        <v/>
-      </c>
-      <c r="F27" s="65" t="str">
+        <v>18088758</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v/>
+        <v>16826467</v>
       </c>
       <c r="G27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6855,266 +6886,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>6730302</v>
+      </c>
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E30" s="198" t="str">
+        <v>6780629</v>
+      </c>
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v/>
-      </c>
-      <c r="F30" s="198" t="str">
+        <v>5345297</v>
+      </c>
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v/>
-      </c>
-      <c r="G30" s="198" t="str">
+        <v>4807353</v>
+      </c>
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7161,169 +7192,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>12167429</v>
+      </c>
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E34" s="198" t="str">
+        <v>11870228</v>
+      </c>
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v/>
-      </c>
-      <c r="F34" s="198" t="str">
+        <v>12743461</v>
+      </c>
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v/>
-      </c>
-      <c r="G34" s="198" t="str">
+        <v>12019114</v>
+      </c>
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="198" t="str">
+        <v>-40166</v>
+      </c>
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>-20315</v>
+      </c>
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F35" s="198" t="str">
+        <v>-9659</v>
+      </c>
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>18897731</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7365,63 +7396,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>7.2926003656206134E-2</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7434,372 +7465,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.76650749242859184</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.74730778437024314</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.72529316639307739</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.73063739715540388</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.75374615648274401</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.23844898273283535</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.20789611070514921</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.2091527537747688</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.1956916313538179</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.18019017201750345</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>4.1444030307908998E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>2.7509192812171647E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>5.0766322292434473E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>5.0271123067556758E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>1.9669428536394796E-3</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-9.1008781922180815E-3</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>4.204518564339043E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>6.0477447602910371E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>6.8643859184022576E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>6.4096728646113099E-2</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7811,216 +7842,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>1.32361599389895</v>
+      </c>
+      <c r="D48" s="267">
+        <f t="shared" si="41"/>
+        <v>1.0590365901148671</v>
+      </c>
+      <c r="E48" s="267">
+        <f t="shared" si="41"/>
+        <v>1.2155372414181227</v>
+      </c>
+      <c r="F48" s="267">
+        <f t="shared" si="41"/>
+        <v>0.89130659454536709</v>
+      </c>
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="269" t="e">
+        <v/>
+      </c>
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" s="269" t="e">
+        <v/>
+      </c>
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" s="269" t="str">
+        <v/>
+      </c>
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="e">
+      <c r="G51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8036,350 +8067,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>0.64598204937936732</v>
+      </c>
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E53" s="155" t="str">
+        <v>0.63753333157827552</v>
+      </c>
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F53" s="155" t="str">
+        <v>0.70503016293324283</v>
+      </c>
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G53" s="155" t="str">
+        <v>0.71429813519379914</v>
+      </c>
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.10406597465064728</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-0.4553849577214063</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>6.5427687834448023E-2</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>8.3942567526595541E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>7.3234698143629109E-2</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>3.0687102059439617E-2</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>1.2166063745959766E-2</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>6.3988480529339753E-3</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>1.2110007773889174E-2</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>5.6068811117627963E-3</v>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+        <v>0.11289168751093069</v>
+      </c>
+      <c r="D58" s="269">
+        <f t="shared" si="49"/>
+        <v>-8.2334339146664711E-3</v>
+      </c>
+      <c r="E58" s="269">
+        <f t="shared" si="49"/>
+        <v>7.7232630132861607E-2</v>
+      </c>
+      <c r="F58" s="269">
+        <f t="shared" si="49"/>
+        <v>8.1798874692427415E-2</v>
+      </c>
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="271" t="e">
+        <v/>
+      </c>
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" s="271" t="e">
+        <v/>
+      </c>
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="271" t="str">
+        <v/>
+      </c>
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
+        <v>0.10225085285021333</v>
+      </c>
+      <c r="D59" s="269">
+        <f t="shared" si="50"/>
+        <v>-1.5117896634325279E-2</v>
+      </c>
+      <c r="E59" s="269">
+        <f t="shared" si="50"/>
+        <v>7.2489790733561668E-2</v>
+      </c>
+      <c r="F59" s="269">
+        <f t="shared" si="50"/>
+        <v>7.546421474993914E-2</v>
+      </c>
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="271" t="e">
+        <v/>
+      </c>
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" s="271" t="e">
+        <v/>
+      </c>
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="271" t="str">
+        <v/>
+      </c>
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9658,7 +9689,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9676,7 +9707,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9694,67 +9725,67 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>12167429</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>12207595</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>-40166</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9767,25 +9798,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-6730302</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>1.5531408484076628</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9793,7 +9824,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9803,287 +9834,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10094,21 +10125,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10121,45 +10152,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10167,17 +10198,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10187,19 +10218,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10209,17 +10240,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10228,7 +10259,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10238,17 +10269,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10261,7 +10292,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10271,17 +10302,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10308,12 +10339,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10323,171 +10354,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10495,25 +10526,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10521,26 +10552,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10548,131 +10579,131 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>6730302</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10682,16 +10713,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10701,16 +10732,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10720,14 +10751,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10740,7 +10771,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10750,33 +10781,33 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>79</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10784,14 +10815,14 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>6730302</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10800,63 +10831,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>18897731</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="87"/>
+        <v>6730302</v>
+      </c>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+        <v>P/B Approach</v>
+      </c>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10864,45 +10895,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10910,61 +10941,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10978,35 +11009,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11020,29 +11051,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11056,9 +11087,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11066,32 +11097,32 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>18897731</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11101,65 +11132,65 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+        <v>6730302</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>12167429</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.55314084840766276</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+        <v>-6730302</v>
+      </c>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11169,66 +11200,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>25013339</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>17509337.300000001</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>20010671.199999999</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>18409837</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>12886885.9</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.73600077942413045</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>14727869.6</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.73600077942413045</v>
       </c>
@@ -11236,50 +11267,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>6603502</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>4622451.4000000004</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>5282801.5999999996</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>232</v>
+      <c r="B77" s="103" t="s">
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>5225366</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>3657756.2</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.20890317762054877</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>4180292.8</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.20890317762054877</v>
       </c>
@@ -11287,60 +11318,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1378136</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>5.5096042955320758E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>964695.20000000019</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>5.5096042955320765E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1102508.7999999998</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>5.5096042955320751E-2</v>
       </c>
@@ -11348,61 +11379,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>129899</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>90929.3</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>103919.2</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>5.1931891220120593E-3</v>
       </c>
@@ -11410,59 +11441,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1248237</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>873765.90000000014</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>4.9902853833308704E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>998589.59999999986</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>4.9902853833308697E-2</v>
       </c>
@@ -11470,184 +11501,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>936177.75</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>655324.42500000005</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>3.7427140374981523E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>748942.2</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>3.7427140374981523E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.3819631221712778</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.9673741855198944</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1055704977370222</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21260971110327351</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.21559487085355347</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14882679777229144</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.15091640959748742</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17008776888261881</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.17247589668284277</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.3979845707719501</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.45483950945365731</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.49748071346493766</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.461538461538462E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.5803432137285501E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7692307692307704E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.8642745709828396E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.461538461538462E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.5803432137285501E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11655,55 +11686,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.931221301610133</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>32.22267963527014</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.996951138998448</v>
+        <v>40.406785898339166</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.070046916337953</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>10.114947541143719</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.617260311042866</v>
+        <v>13.692003085761995</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11713,123 +11744,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13470991.025698746</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>13609023.555876156</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.875460360821737</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>16.020366663626298</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.885553589172464</v>
-      </c>
-      <c r="I97" s="122">
+        <v>20.089313896833243</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.142624239186265</v>
+        <v>27.420745209814353</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>13470991.025698746</v>
-      </c>
-      <c r="D100" s="109">
+        <v>13609023.555876156</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.198430928747534</v>
-      </c>
-      <c r="E100" s="109">
+        <v>15.346614238195302</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.875460360821737</v>
-      </c>
-      <c r="F100" s="109">
+        <v>16.020366663626298</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>17.8805069749971</v>
-      </c>
-      <c r="H100" s="109">
+        <v>18.054840280229769</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.885553589172464</v>
-      </c>
-      <c r="I100" s="109">
+        <v>20.089313896833243</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>27.142624239186265</v>
+        <v>27.420745209814353</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11839,58 +11870,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4586299.3608481223</v>
-      </c>
-      <c r="D103" s="109">
+        <v>4611472.7607899867</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0051306820096322</v>
-      </c>
-      <c r="E103" s="122">
+        <v>5.0289165962192985</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0065930501655149</v>
-      </c>
-      <c r="F103" s="109">
+        <v>5.0289165962192985</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>5.8883890376583912</v>
-      </c>
-      <c r="H103" s="122">
+        <v>5.9181309950462788</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7701850251512674</v>
-      </c>
-      <c r="I103" s="109">
+        <v>6.8073453938732591</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2409088509108912</v>
+        <v>9.2916305932193293</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11900,58 +11931,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7073022.9569957256</v>
-      </c>
-      <c r="D106" s="109">
+        <v>7129665.8807920804</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>10.101780805378583</v>
-      </c>
-      <c r="E106" s="122">
+        <v>10.1877654172073</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>10.441026705493627</v>
-      </c>
-      <c r="F106" s="109">
+        <v>10.524641629922797</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>11.884448006327746</v>
-      </c>
-      <c r="H106" s="122">
+        <v>11.986485637638024</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>13.327869307161865</v>
-      </c>
-      <c r="I106" s="122">
+        <v>13.448329645353251</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>18.19176654504858</v>
+        <v>18.35618790151684</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11960,15 +11991,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{985AEDB0-B85F-4CA0-B25D-276EB7266454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC1BFD0-0CA4-44C8-8689-D2D90B4F5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3886,7 +3903,7 @@
         <v>232</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3896,11 +3913,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3914,10 +3931,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4139,8 +4156,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4153,8 +4173,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4197,11 +4217,11 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4210,47 +4230,47 @@
         <v>6.41</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
         <v>4342.3006599999999</v>
       </c>
-      <c r="H5" s="286"/>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4273,11 +4293,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4418,7 +4438,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.11289168751093069</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4430,20 +4450,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.64598204937936732</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>5.5096042955320758E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.32361599389895</v>
       </c>
@@ -4452,12 +4472,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>5.5096042955320758E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.5480306317501522</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
@@ -4468,10 +4488,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>5.1931891220120593E-3</v>
       </c>
@@ -4531,10 +4551,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4553,11 +4573,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>5.9181309950462788</v>
       </c>
-      <c r="G29" s="285">
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>9.2916305932193293</v>
       </c>
-      <c r="H29" s="285"/>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5588,7 +5608,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7829,7 +7849,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9756,7 +9776,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>12207595</v>
       </c>
@@ -10803,7 +10823,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10820,7 +10840,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>6730302</v>
       </c>
@@ -10929,11 +10949,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10944,11 +10964,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10960,11 +10980,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11178,19 +11198,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11200,18 +11220,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11670,15 +11690,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC1BFD0-0CA4-44C8-8689-D2D90B4F5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BA1E7D-E3F9-4C74-9A1F-8E97FCE19D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5803432137285501E-2</v>
+        <v>8.7301587301587311E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.41</v>
+        <v>6.3</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>4342.3006599999999</v>
+        <v>4267.7838000000002</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35687906294748056</v>
+        <v>0.35075477325571408</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.7979115878368184</v>
+        <v>5.6984154451438309</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5803432137285501E-2</v>
+        <v>8.7301587301587311E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4562,20 +4562,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0289165962192985</v>
+        <v>5.0571805447710769</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>10.685375182202227</v>
+        <v>10.759295498254243</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9181309950462788</v>
+        <v>5.9558092236375284</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.2916305932193293</v>
+        <v>9.3559091289167338</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9727,7 +9727,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11598,17 +11598,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21559487085355347</v>
+        <v>0.21935922574147268</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15091640959748742</v>
+        <v>0.15355145801903086</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17247589668284277</v>
+        <v>0.17548738059317814</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11649,17 +11649,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5803432137285501E-2</v>
+        <v>8.7301587301587311E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8642745709828396E-2</v>
+        <v>6.9841269841269857E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5803432137285501E-2</v>
+        <v>8.7301587301587311E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11719,14 +11719,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.22267963527014</v>
+        <v>32.593245258100509</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.406785898339166</v>
+        <v>40.928379058536088</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11747,14 +11747,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.114947541143719</v>
+        <v>10.171796437210467</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.692003085761995</v>
+        <v>13.7867229414738</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11797,21 +11797,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13609023.555876156</v>
+        <v>13784696.365427574</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>16.020366663626298</v>
+        <v>16.204603270198881</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.089313896833243</v>
+        <v>20.348637881373868</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.420745209814353</v>
+        <v>27.774707368173736</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11838,18 +11838,18 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-6730302</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-11.425376793922878</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-9.9351102555851121</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11860,27 +11860,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>13609023.555876156</v>
+        <v>7054394.3654275741</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.346614238195302</v>
+        <v>4.7792264762760031</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>16.020366663626298</v>
+        <v>4.7792264762760031</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>18.054840280229769</v>
+        <v>7.5963770510323796</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.089313896833243</v>
+        <v>10.413527625788756</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>27.420745209814353</v>
+        <v>17.839597112588624</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11921,27 +11921,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>4611472.7607899867</v>
+        <v>4643374.4505416611</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0289165962192985</v>
+        <v>5.0571805447710769</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0289165962192985</v>
+        <v>5.0571805447710769</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>5.9181309950462788</v>
+        <v>5.9558092236375284</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8073453938732591</v>
+        <v>6.8544379025039799</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2916305932193293</v>
+        <v>9.3559091289167338</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11982,27 +11982,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7129665.8807920804</v>
+        <v>3331718.9313199194</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>10.1877654172073</v>
+        <v>4.91820351052354</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>10.524641629922797</v>
+        <v>4.91820351052354</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>11.986485637638024</v>
+        <v>6.7760931373349536</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>13.448329645353251</v>
+        <v>8.6339827641463671</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>18.35618790151684</v>
+        <v>13.597753120752678</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE8F2C0-C853-4F4D-BD6A-F21BA72E9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8505CA-D414-41FD-B28F-D23A75DC0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7025316455696208E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.32</v>
+        <v>6.33</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>4281.3323200000004</v>
+        <v>4288.1065799999997</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4661,7 +4661,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35186828047239893</v>
+        <v>0.35242503408074133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.7165056529061928</v>
+        <v>5.7255507567873734</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7025316455696208E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4780,20 +4780,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.738212040834699</v>
+        <v>5.0493621057684859</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.619467074058578</v>
+        <v>10.738839862693965</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.750837695099646</v>
+        <v>5.9453841554114293</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.2343191948335477</v>
+        <v>9.338121619733883</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11830,17 +11830,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21866505097646799</v>
+        <v>0.21831960855786378</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1530655356835276</v>
+        <v>0.15282372599050464</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17493204078117439</v>
+        <v>0.17465568684629101</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11881,17 +11881,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7025316455696208E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9620253164556972E-2</v>
+        <v>6.9510268562401278E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7025316455696208E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11944,21 +11944,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.462718463337026</v>
+        <v>32.490565658642687</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.578281055488535</v>
+        <v>40.783793318920253</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11979,14 +11979,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8815707119883829</v>
+        <v>10.156070763727577</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.65278984708096</v>
+        <v>13.760511543143206</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12029,21 +12029,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13174716.279967375</v>
+        <v>13735999.823682675</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>16.084634479057801</v>
+        <v>16.153553362158704</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.448199921419278</v>
+        <v>20.276753215380978</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>23.439476046957115</v>
+        <v>27.676588979422078</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12093,23 +12093,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.1495242234726888</v>
+        <v>6.2184431065735915</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.1495242234726888</v>
+        <v>6.2184431065735915</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>7.8313069446534271</v>
+        <v>8.2800430331847288</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.5130896658341655</v>
+        <v>10.341642959795866</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.504365791372003</v>
+        <v>17.741478723836966</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12148,23 +12148,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.738212040834699</v>
+        <v>5.0493621057684859</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.8397769126248944</v>
+        <v>5.0493621057684859</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.750837695099646</v>
+        <v>5.9453841554114293</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6618984775743986</v>
+        <v>6.8414062050543727</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.2343191948335477</v>
+        <v>9.338121619733883</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12203,23 +12203,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>5.9438681321536944</v>
+        <v>5.6339026061710387</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.994650568048792</v>
+        <v>5.6339026061710387</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.2910723198765366</v>
+        <v>7.1127135942980786</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.5874940717042811</v>
+        <v>8.5915245824251194</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.369342493102774</v>
+        <v>13.539800171785425</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8505CA-D414-41FD-B28F-D23A75DC0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EAF24D-2CF9-4ECB-8290-CA43EC7B60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3693,7 +3694,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.6614173228346469E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4345,7 +4346,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4368,6 +4369,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4386,8 +4390,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4423,24 +4427,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4450,7 +4457,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
@@ -4479,11 +4486,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>4288.1065799999997</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>4301.6550999999999</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4506,11 +4513,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,10 +4585,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4628,7 +4635,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4702,7 +4709,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35242503408074133</v>
+        <v>0.35353854129742612</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4718,7 +4725,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.7255507567873734</v>
+        <v>5.7436409645497335</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4750,7 +4757,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.6614173228346469E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4769,10 +4776,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4780,22 +4787,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.0493621057684859</v>
+        <v>5.5349211368195199</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.738839862693965</v>
+        <v>12.065847128003433</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9453841554114293</v>
-      </c>
-      <c r="G29" s="312">
+        <v>6.5162240182175122</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.338121619733883</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>10.492040980872552</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5777,15 +5784,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5813,7 +5821,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11830,17 +11838,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21831960855786378</v>
+        <v>0.21763198774350834</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15282372599050464</v>
+        <v>0.15234239142045583</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17465568684629101</v>
+        <v>0.17410559019480665</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11881,17 +11889,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.6614173228346469E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9510268562401278E-2</v>
+        <v>6.9291338582677178E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.6614173228346469E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11940,7 +11948,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11951,14 +11959,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.490565658642687</v>
+        <v>35.577047603379661</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.783793318920253</v>
+        <v>44.646758976671727</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11979,14 +11987,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.156070763727577</v>
+        <v>11.132703410787609</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.760511543143206</v>
+        <v>15.080204618016229</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12029,21 +12037,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13735999.823682675</v>
+        <v>15037048.38429193</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>16.153553362158704</v>
+        <v>17.688080379000148</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.276753215380978</v>
+        <v>22.197329869671268</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.676588979422078</v>
+        <v>31.062948859907515</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12093,23 +12101,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.2184431065735915</v>
+        <v>7.7529701234150359</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.2184431065735915</v>
+        <v>7.7529701234150359</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.2800430331847288</v>
+        <v>10.007594868750596</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.341642959795866</v>
+        <v>12.262219614086156</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>17.741478723836966</v>
+        <v>21.127838604322402</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12148,23 +12156,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.0493621057684859</v>
+        <v>5.5349211368195199</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.0493621057684859</v>
+        <v>5.5349211368195199</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.9453841554114293</v>
+        <v>6.5162240182175122</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.8414062050543727</v>
+        <v>7.4975268996155036</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.338121619733883</v>
+        <v>10.492040980872552</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12203,23 +12211,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>5.6339026061710387</v>
+        <v>6.6439456301172779</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.6339026061710387</v>
+        <v>6.6439456301172779</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.1127135942980786</v>
+        <v>8.2619094434840541</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.5915245824251194</v>
+        <v>9.8798732568508303</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>13.539800171785425</v>
+        <v>15.809939792597477</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EAF24D-2CF9-4ECB-8290-CA43EC7B60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2388D96-09B1-47C8-BCAA-65F87688B35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6614173228346469E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4427,27 +4427,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.35</v>
+        <v>6.33</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4457,40 +4457,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>4301.6550999999999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>4288.1065799999997</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4513,11 +4513,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35353854129742612</v>
+        <v>0.35242503408074133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.7436409645497335</v>
+        <v>5.7255507567873734</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6614173228346469E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4776,10 +4776,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4787,22 +4787,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.5349211368195199</v>
+        <v>5.9076892473784666</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>12.065847128003433</v>
+        <v>11.951690975989615</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.5162240182175122</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.9502226439746666</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.492040980872552</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>10.392774761730101</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5785,15 +5785,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11166,7 +11166,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11177,11 +11177,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11193,11 +11193,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11838,17 +11838,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21763198774350834</v>
+        <v>0.21831960855786378</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15234239142045583</v>
+        <v>0.15282372599050464</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17410559019480665</v>
+        <v>0.17465568684629101</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11889,17 +11889,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6614173228346469E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9291338582677178E-2</v>
+        <v>6.9510268562401278E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6614173228346469E-2</v>
+        <v>8.6887835703001584E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11952,21 +11952,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>35.577047603379661</v>
+        <v>30.925293902460329</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.646758976671727</v>
+        <v>38.097502035026629</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11987,14 +11987,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.132703410787609</v>
+        <v>10.419820290535782</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.080204618016229</v>
+        <v>13.892145395870644</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12037,21 +12037,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15037048.38429193</v>
+        <v>14755944.076003136</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.688080379000148</v>
+        <v>17.681637159650137</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>22.197329869671268</v>
+        <v>21.78237043751367</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>31.062948859907515</v>
+        <v>28.500907984469865</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12101,23 +12101,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.7529701234150359</v>
+        <v>7.7465269040650249</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7529701234150359</v>
+        <v>7.7465269040650249</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>10.007594868750596</v>
+        <v>9.7968935429967914</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.262219614086156</v>
+        <v>11.847260181928558</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.127838604322402</v>
+        <v>18.565797728884753</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12156,23 +12156,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5349211368195199</v>
+        <v>5.9076892473784666</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.5349211368195199</v>
+        <v>5.9575660696099773</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.5162240182175122</v>
+        <v>6.9502226439746666</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.4975268996155036</v>
+        <v>7.942879218339356</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.492040980872552</v>
+        <v>10.392774761730101</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12211,23 +12211,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.6439456301172779</v>
+        <v>6.8271080757217462</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>6.6439456301172779</v>
+        <v>6.8520464868375015</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.2619094434840541</v>
+        <v>8.3735580934857285</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>9.8798732568508303</v>
+        <v>9.8950697001339574</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>15.809939792597477</v>
+        <v>14.479286245307428</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4418DA58-3B5E-4CF1-8873-579E7CF224C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FE0E4F-CBD7-4321-A5DA-723F6F786B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4463,27 +4463,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.33</v>
+        <v>6.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4493,7 +4493,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
@@ -4522,11 +4522,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>4288.1065799999997</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>4335.5263999999997</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4549,11 +4549,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35242503408074133</v>
+        <v>0.35632230933913817</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>5.7255507567873734</v>
+        <v>5.7888664839556379</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.59375E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4812,10 +4812,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4823,22 +4823,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.9345423803210959</v>
+        <v>5.9154733384496607</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>12.017189128377492</v>
+        <v>11.975214625034596</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.9818145650836421</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.9593803981760711</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.449729676849994</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>10.413230108725736</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5821,15 +5821,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11976,17 +11976,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.21831960855786378</v>
+        <v>0.21593173783926214</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15282372599050464</v>
+        <v>0.1511522164874835</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17465568684629101</v>
+        <v>0.1727453902714097</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12027,17 +12027,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9510268562401278E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6887835703001584E-2</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12097,14 +12097,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.065863420198777</v>
+        <v>30.886082041161448</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>38.270672498822201</v>
+        <v>38.022326744923312</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12125,14 +12125,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.467183110038217</v>
+        <v>10.437452160644533</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.95529151130642</v>
+        <v>13.906547464430332</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12175,21 +12175,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14823016.549075874</v>
+        <v>14726827.143989008</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.762008237648544</v>
+        <v>17.65921765068676</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.881381212229638</v>
+        <v>21.739388721408698</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>28.657099842016205</v>
+        <v>28.471138409929004</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12239,23 +12239,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.8268979820634321</v>
+        <v>7.7241073951016475</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.8268979820634321</v>
+        <v>7.7241073951016475</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>9.8865844693539788</v>
+        <v>9.7641929304626167</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.946270956644526</v>
+        <v>11.804278465823586</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>18.721989586431093</v>
+        <v>18.536028154343892</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12294,23 +12294,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9345423803210959</v>
+        <v>5.9154733384496607</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9846459153809315</v>
+        <v>5.9676471485705305</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>6.9818145650836421</v>
+        <v>6.9593803981760711</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.9789832147863535</v>
+        <v>7.9511136477816109</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.449729676849994</v>
+        <v>10.413230108725736</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12349,23 +12349,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>6.880720181192264</v>
+        <v>6.8197903667756545</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>6.9057719487221814</v>
+        <v>6.8458772718360894</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>8.4341995172188113</v>
+        <v>8.361786664319343</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.9626270857154395</v>
+        <v>9.8776960568025984</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>14.585859631640544</v>
+        <v>14.474629131534815</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0116.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FE0E4F-CBD7-4321-A5DA-723F6F786B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A10B8C-A7FA-49C1-8037-986B50A5F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4463,21 +4463,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0116.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4493,40 +4493,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>周生生</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>677426000</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
         <v>4335.5263999999997</v>
       </c>
-      <c r="H5" s="315"/>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4549,11 +4549,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4812,10 +4812,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4834,11 +4834,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>6.9593803981760711</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>10.413230108725736</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5821,15 +5821,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11304,7 +11304,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11315,11 +11315,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11331,11 +11331,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
